--- a/Manual Testing (BD Shop)/TestCase_BD-SHOP.xlsx
+++ b/Manual Testing (BD Shop)/TestCase_BD-SHOP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C-ROAD\Documents\Manual-Testing--Test-Cases-with-Scenarios--Mindmaps--Reports---Test-Metrics-\Manual Testing (BD Shop)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267399FD-C742-4155-979A-1CE49B3FFC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EFA699-3FC8-49C4-BD5A-B908DE45C877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="335">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Reviewed By</t>
-  </si>
-  <si>
-    <t>Ehsanul Alam Sabbir</t>
   </si>
   <si>
     <t>Out of Scope</t>
@@ -1299,9 +1296,6 @@
   </si>
   <si>
     <t>No. of complaints per Period of Time</t>
-  </si>
-  <si>
-    <t>Md. Golam An Nihal</t>
   </si>
   <si>
     <t>Rania Marzooq Yousef</t>
@@ -2769,17 +2763,20 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,59 +2788,23 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2876,11 +2837,44 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3805,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="C6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +3816,7 @@
   <dimension ref="A1:Z251"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75"/>
@@ -3843,39 +3837,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="266" t="s">
+      <c r="B4" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="266"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="262" t="s">
+      <c r="C5" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
+      <c r="G5" s="255"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="262" t="s">
+      <c r="C6" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
-      <c r="G6" s="262"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
+      <c r="G6" s="255"/>
       <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3890,11 +3884,11 @@
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="262"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="262"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="262"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255"/>
       <c r="I7" s="6">
         <f>C15</f>
         <v>54</v>
@@ -3909,13 +3903,13 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="262" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
+      <c r="C8" s="255" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
       <c r="I8" s="6">
         <f>D15</f>
         <v>8</v>
@@ -3930,13 +3924,13 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="262" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
+      <c r="C9" s="255" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="255"/>
+      <c r="E9" s="255"/>
+      <c r="F9" s="255"/>
+      <c r="G9" s="255"/>
       <c r="I9" s="6">
         <f>E15</f>
         <v>0</v>
@@ -3962,19 +3956,19 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="262" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
+      <c r="C10" s="255" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="255"/>
       <c r="I10" s="6">
         <f>F15</f>
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -3983,26 +3977,26 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="263" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="263"/>
+      <c r="B11" s="256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="263"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="263"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>9</v>
@@ -4014,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -4072,7 +4066,7 @@
     </row>
     <row r="15" spans="1:26" ht="18.75">
       <c r="B15" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="25">
         <f>SUM(C14)</f>
@@ -4133,359 +4127,359 @@
       <c r="R17" s="15"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="257"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="257"/>
+      <c r="F18" s="257"/>
+      <c r="G18" s="257"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B19" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="265" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="265"/>
-      <c r="D19" s="265"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="258"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="30" t="s">
+    </row>
+    <row r="20" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B20" s="259" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="258" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="258"/>
-      <c r="D20" s="258"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="259"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B21" s="259" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="258" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="259"/>
-      <c r="C23" s="260" t="s">
+      <c r="B23" s="260"/>
+      <c r="C23" s="261" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="261" t="s">
+      <c r="E23" s="262"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="262"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B24" s="260"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="262"/>
+      <c r="E24" s="262"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="262"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B25" s="260"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262"/>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B26" s="260"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="262"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B27" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="261"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="261"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="259"/>
-      <c r="C24" s="259"/>
-      <c r="D24" s="261"/>
-      <c r="E24" s="261"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="261"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="259"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="261"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="261"/>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="259"/>
-      <c r="C26" s="259"/>
-      <c r="D26" s="261"/>
-      <c r="E26" s="261"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="261"/>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="254" t="s">
+      <c r="C27" s="264" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="257" t="s">
+      <c r="D27" s="265" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="256" t="s">
+      <c r="E27" s="265"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="265"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B28" s="263"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B29" s="263"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="265"/>
+      <c r="F29" s="265"/>
+      <c r="G29" s="265"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B30" s="263"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="265"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="265"/>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B31" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="264" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="254"/>
-      <c r="C28" s="254"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="254"/>
-      <c r="C29" s="254"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-    </row>
-    <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="254"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-    </row>
-    <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="257" t="s">
+      <c r="D31" s="265" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="256" t="s">
+      <c r="E31" s="265"/>
+      <c r="F31" s="265"/>
+      <c r="G31" s="265"/>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B32" s="263"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
+      <c r="G32" s="265"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="263"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="265"/>
+      <c r="E33" s="265"/>
+      <c r="F33" s="265"/>
+      <c r="G33" s="265"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="263"/>
+      <c r="C34" s="263"/>
+      <c r="D34" s="265"/>
+      <c r="E34" s="265"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="265"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-    </row>
-    <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="254"/>
-      <c r="C32" s="254"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="256"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="254"/>
-      <c r="C33" s="254"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="254"/>
-      <c r="C34" s="254"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="256"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="257" t="s">
+      <c r="D35" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="256" t="s">
+      <c r="E35" s="265"/>
+      <c r="F35" s="265"/>
+      <c r="G35" s="265"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="263"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="265"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="263"/>
+      <c r="C37" s="263"/>
+      <c r="D37" s="265"/>
+      <c r="E37" s="265"/>
+      <c r="F37" s="265"/>
+      <c r="G37" s="265"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="263"/>
+      <c r="C38" s="263"/>
+      <c r="D38" s="265"/>
+      <c r="E38" s="265"/>
+      <c r="F38" s="265"/>
+      <c r="G38" s="265"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="256"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="254"/>
-      <c r="C36" s="254"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="256"/>
-      <c r="G36" s="256"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="254"/>
-      <c r="C37" s="254"/>
-      <c r="D37" s="256"/>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="254"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="256"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="257" t="s">
+      <c r="D39" s="265" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="256" t="s">
+      <c r="E39" s="265"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="265"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="263"/>
+      <c r="C40" s="263"/>
+      <c r="D40" s="265"/>
+      <c r="E40" s="265"/>
+      <c r="F40" s="265"/>
+      <c r="G40" s="265"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="263"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="265"/>
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="265"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="263"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="265"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="265"/>
+      <c r="G42" s="265"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="266" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="256"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="254"/>
-      <c r="C40" s="254"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="256"/>
-      <c r="F40" s="256"/>
-      <c r="G40" s="256"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="254"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="255" t="s">
+      <c r="D43" s="265" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="256" t="s">
+      <c r="E43" s="265"/>
+      <c r="F43" s="265"/>
+      <c r="G43" s="265"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="263"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="265"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="265"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="263"/>
+      <c r="C45" s="263"/>
+      <c r="D45" s="265"/>
+      <c r="E45" s="265"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="265"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="263"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="265"/>
+      <c r="E46" s="265"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="265"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="266" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="256"/>
-      <c r="F43" s="256"/>
-      <c r="G43" s="256"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="254"/>
-      <c r="C44" s="254"/>
-      <c r="D44" s="256"/>
-      <c r="E44" s="256"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="254"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="254"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="255" t="s">
+      <c r="D47" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="256" t="s">
+      <c r="E47" s="265"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="265"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="263"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="265"/>
+      <c r="E48" s="265"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="265"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="263"/>
+      <c r="C49" s="263"/>
+      <c r="D49" s="265"/>
+      <c r="E49" s="265"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="265"/>
+    </row>
+    <row r="50" spans="2:7" ht="33.75" customHeight="1">
+      <c r="B50" s="263"/>
+      <c r="C50" s="263"/>
+      <c r="D50" s="265"/>
+      <c r="E50" s="265"/>
+      <c r="F50" s="265"/>
+      <c r="G50" s="265"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="266" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="256"/>
-      <c r="F47" s="256"/>
-      <c r="G47" s="256"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="254"/>
-      <c r="C48" s="254"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="256"/>
-      <c r="F48" s="256"/>
-      <c r="G48" s="256"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="254"/>
-      <c r="C49" s="254"/>
-      <c r="D49" s="256"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-    </row>
-    <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="254"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-      <c r="G50" s="256"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="254" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="255" t="s">
+      <c r="D51" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="256"/>
-      <c r="F51" s="256"/>
-      <c r="G51" s="256"/>
+      <c r="E51" s="265"/>
+      <c r="F51" s="265"/>
+      <c r="G51" s="265"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="254"/>
-      <c r="C52" s="254"/>
-      <c r="D52" s="256"/>
-      <c r="E52" s="256"/>
-      <c r="F52" s="256"/>
-      <c r="G52" s="256"/>
+      <c r="B52" s="263"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="265"/>
+      <c r="E52" s="265"/>
+      <c r="F52" s="265"/>
+      <c r="G52" s="265"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="254"/>
-      <c r="C53" s="254"/>
-      <c r="D53" s="256"/>
-      <c r="E53" s="256"/>
-      <c r="F53" s="256"/>
-      <c r="G53" s="256"/>
+      <c r="B53" s="263"/>
+      <c r="C53" s="263"/>
+      <c r="D53" s="265"/>
+      <c r="E53" s="265"/>
+      <c r="F53" s="265"/>
+      <c r="G53" s="265"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="254"/>
-      <c r="C54" s="254"/>
-      <c r="D54" s="256"/>
-      <c r="E54" s="256"/>
-      <c r="F54" s="256"/>
-      <c r="G54" s="256"/>
+      <c r="B54" s="263"/>
+      <c r="C54" s="263"/>
+      <c r="D54" s="265"/>
+      <c r="E54" s="265"/>
+      <c r="F54" s="265"/>
+      <c r="G54" s="265"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -4686,33 +4680,6 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:G54"/>
@@ -4722,6 +4689,33 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -4733,7 +4727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC386"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -4757,21 +4751,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="291" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="291"/>
+      <c r="A1" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="267"/>
       <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="252">
         <v>45660</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="252">
         <v>45750</v>
@@ -4780,10 +4774,10 @@
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="292" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="292"/>
+      <c r="L1" s="268" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="268"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -4802,21 +4796,21 @@
       <c r="AC1" s="37"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="291" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="291"/>
+      <c r="A2" s="267" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="267"/>
       <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="253">
         <v>45750</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="253">
         <v>45841</v>
@@ -4850,22 +4844,22 @@
       <c r="AC2" s="37"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="291" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="291"/>
+      <c r="A3" s="267" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="267"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="38" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>60</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -4896,22 +4890,22 @@
       <c r="AC3" s="37"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="291" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="291"/>
+      <c r="A4" s="267" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="267"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -4942,21 +4936,21 @@
       <c r="AC4" s="37"/>
     </row>
     <row r="5" spans="1:29" s="51" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="280" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="280"/>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="281"/>
+      <c r="A5" s="269" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="269"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
       <c r="L5" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="49">
         <f>COUNTIF(L7:L500, "Out of Scope")</f>
@@ -4992,7 +4986,7 @@
       <c r="J6" s="35"/>
       <c r="K6" s="36"/>
       <c r="L6" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="54">
         <f>SUM(M2:M5)</f>
@@ -5017,43 +5011,43 @@
     </row>
     <row r="7" spans="1:29" s="59" customFormat="1" ht="33" customHeight="1">
       <c r="A7" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="C7" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="D7" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="E7" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="F7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="G7" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="H7" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="I7" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="J7" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="K7" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="L7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="M7" s="58" t="s">
         <v>77</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="69" customFormat="1" ht="30" customHeight="1">
@@ -5062,28 +5056,28 @@
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="G8" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="H8" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="I8" s="64" t="s">
         <v>83</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>84</v>
       </c>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
       <c r="L8" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M8" s="67"/>
       <c r="N8" s="68"/>
@@ -5138,34 +5132,34 @@
       <c r="A10" s="78">
         <v>2</v>
       </c>
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="271" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="272" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="283" t="s">
+      <c r="D10" s="271" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="282" t="s">
+      <c r="E10" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="F10" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="G10" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="63" t="s">
+      <c r="I10" s="64" t="s">
         <v>91</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>92</v>
       </c>
       <c r="J10" s="79"/>
       <c r="K10" s="79"/>
       <c r="L10" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M10" s="81"/>
       <c r="N10" s="82"/>
@@ -5189,28 +5183,28 @@
       <c r="A11" s="78">
         <v>3</v>
       </c>
-      <c r="B11" s="282"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="282"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="271"/>
       <c r="E11" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="G11" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="64" t="s">
         <v>94</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>95</v>
       </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
       <c r="L11" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M11" s="81"/>
       <c r="N11" s="82"/>
@@ -5234,28 +5228,28 @@
       <c r="A12" s="78">
         <v>4</v>
       </c>
-      <c r="B12" s="282"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="282"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="271"/>
       <c r="E12" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="G12" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="64" t="s">
         <v>97</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="64" t="s">
-        <v>98</v>
       </c>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M12" s="85"/>
       <c r="N12" s="85"/>
@@ -5279,28 +5273,28 @@
       <c r="A13" s="78">
         <v>5</v>
       </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="283"/>
-      <c r="D13" s="282"/>
+      <c r="B13" s="271"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="G13" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="64" t="s">
         <v>100</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>101</v>
       </c>
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M13" s="85"/>
       <c r="N13" s="85"/>
@@ -5324,28 +5318,28 @@
       <c r="A14" s="78">
         <v>6</v>
       </c>
-      <c r="B14" s="282"/>
-      <c r="C14" s="283"/>
-      <c r="D14" s="282"/>
+      <c r="B14" s="271"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="G14" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>103</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>104</v>
       </c>
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
@@ -5369,28 +5363,28 @@
       <c r="A15" s="78">
         <v>7</v>
       </c>
-      <c r="B15" s="282"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="282"/>
+      <c r="B15" s="271"/>
+      <c r="C15" s="272"/>
+      <c r="D15" s="271"/>
       <c r="E15" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="G15" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="64" t="s">
         <v>106</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>107</v>
       </c>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
       <c r="L15" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="85"/>
       <c r="N15" s="85"/>
@@ -5414,28 +5408,28 @@
       <c r="A16" s="78">
         <v>8</v>
       </c>
-      <c r="B16" s="282"/>
-      <c r="C16" s="283"/>
-      <c r="D16" s="282"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="271"/>
       <c r="E16" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="64" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>109</v>
       </c>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M16" s="85"/>
       <c r="N16" s="85"/>
@@ -5459,30 +5453,30 @@
       <c r="A17" s="78">
         <v>9</v>
       </c>
-      <c r="B17" s="282"/>
-      <c r="C17" s="283"/>
-      <c r="D17" s="282"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="271"/>
       <c r="E17" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="G17" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="H17" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="64" t="s">
+      <c r="J17" s="86" t="s">
         <v>113</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>114</v>
       </c>
       <c r="K17" s="84"/>
       <c r="L17" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M17" s="85"/>
       <c r="N17" s="85"/>
@@ -5504,9 +5498,9 @@
     </row>
     <row r="18" spans="1:29" s="94" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="70"/>
-      <c r="B18" s="282"/>
+      <c r="B18" s="271"/>
       <c r="C18" s="87"/>
-      <c r="D18" s="282"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
       <c r="G18" s="88"/>
@@ -5537,30 +5531,30 @@
       <c r="A19" s="95">
         <v>10</v>
       </c>
-      <c r="B19" s="282"/>
-      <c r="C19" s="282" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="282"/>
+      <c r="B19" s="271"/>
+      <c r="C19" s="271" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="271"/>
       <c r="E19" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="97" t="s">
+      <c r="H19" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="98" t="s">
         <v>117</v>
-      </c>
-      <c r="H19" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="98" t="s">
-        <v>118</v>
       </c>
       <c r="J19" s="99"/>
       <c r="K19" s="99"/>
       <c r="L19" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="97"/>
       <c r="N19" s="100"/>
@@ -5584,28 +5578,28 @@
       <c r="A20" s="95">
         <v>11</v>
       </c>
-      <c r="B20" s="282"/>
-      <c r="C20" s="282"/>
-      <c r="D20" s="282"/>
+      <c r="B20" s="271"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="271"/>
       <c r="E20" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="G20" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="97" t="s">
+      <c r="I20" s="97" t="s">
         <v>121</v>
-      </c>
-      <c r="I20" s="97" t="s">
-        <v>122</v>
       </c>
       <c r="J20" s="97"/>
       <c r="K20" s="99"/>
       <c r="L20" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M20" s="103"/>
       <c r="N20" s="100"/>
@@ -5629,30 +5623,30 @@
       <c r="A21" s="95">
         <v>12</v>
       </c>
-      <c r="B21" s="282"/>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
+      <c r="B21" s="271"/>
+      <c r="C21" s="271"/>
+      <c r="D21" s="271"/>
       <c r="E21" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="G21" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="97" t="s">
+      <c r="I21" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="J21" s="105" t="s">
         <v>126</v>
-      </c>
-      <c r="J21" s="105" t="s">
-        <v>127</v>
       </c>
       <c r="K21" s="99"/>
       <c r="L21" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M21" s="103"/>
       <c r="N21" s="100"/>
@@ -5676,30 +5670,30 @@
       <c r="A22" s="95">
         <v>13</v>
       </c>
-      <c r="B22" s="282"/>
-      <c r="C22" s="282"/>
-      <c r="D22" s="282"/>
+      <c r="B22" s="271"/>
+      <c r="C22" s="271"/>
+      <c r="D22" s="271"/>
       <c r="E22" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="97" t="s">
+      <c r="I22" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="97" t="s">
+      <c r="J22" s="105" t="s">
         <v>130</v>
-      </c>
-      <c r="J22" s="105" t="s">
-        <v>131</v>
       </c>
       <c r="K22" s="106"/>
       <c r="L22" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="103"/>
       <c r="N22" s="100"/>
@@ -5723,28 +5717,28 @@
       <c r="A23" s="95">
         <v>14</v>
       </c>
-      <c r="B23" s="282"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
+      <c r="B23" s="271"/>
+      <c r="C23" s="271"/>
+      <c r="D23" s="271"/>
       <c r="E23" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="G23" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="97" t="s">
         <v>133</v>
-      </c>
-      <c r="G23" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="97" t="s">
-        <v>134</v>
       </c>
       <c r="J23" s="97"/>
       <c r="K23" s="99"/>
       <c r="L23" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23" s="103"/>
       <c r="N23" s="100"/>
@@ -5768,30 +5762,30 @@
       <c r="A24" s="95">
         <v>15</v>
       </c>
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
+      <c r="B24" s="271"/>
+      <c r="C24" s="271"/>
+      <c r="D24" s="271"/>
       <c r="E24" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="97" t="s">
+      <c r="I24" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="97" t="s">
+      <c r="J24" s="105" t="s">
         <v>137</v>
-      </c>
-      <c r="J24" s="105" t="s">
-        <v>138</v>
       </c>
       <c r="K24" s="99"/>
       <c r="L24" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M24" s="103"/>
       <c r="N24" s="100"/>
@@ -5815,30 +5809,30 @@
       <c r="A25" s="95">
         <v>16</v>
       </c>
-      <c r="B25" s="282"/>
-      <c r="C25" s="282"/>
-      <c r="D25" s="282"/>
+      <c r="B25" s="271"/>
+      <c r="C25" s="271"/>
+      <c r="D25" s="271"/>
       <c r="E25" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="97" t="s">
+      <c r="I25" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="I25" s="97" t="s">
+      <c r="J25" s="105" t="s">
         <v>141</v>
-      </c>
-      <c r="J25" s="105" t="s">
-        <v>142</v>
       </c>
       <c r="K25" s="99"/>
       <c r="L25" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M25" s="103"/>
       <c r="N25" s="100"/>
@@ -5862,30 +5856,30 @@
       <c r="A26" s="95">
         <v>17</v>
       </c>
-      <c r="B26" s="282"/>
-      <c r="C26" s="282"/>
-      <c r="D26" s="282"/>
+      <c r="B26" s="271"/>
+      <c r="C26" s="271"/>
+      <c r="D26" s="271"/>
       <c r="E26" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="97" t="s">
+      <c r="I26" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="97" t="s">
+      <c r="J26" s="105" t="s">
         <v>145</v>
-      </c>
-      <c r="J26" s="105" t="s">
-        <v>146</v>
       </c>
       <c r="K26" s="99"/>
       <c r="L26" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M26" s="103"/>
       <c r="N26" s="100"/>
@@ -5909,28 +5903,28 @@
       <c r="A27" s="95">
         <v>18</v>
       </c>
-      <c r="B27" s="282"/>
-      <c r="C27" s="282"/>
-      <c r="D27" s="282"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="271"/>
       <c r="E27" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="97" t="s">
+      <c r="I27" s="97" t="s">
         <v>148</v>
-      </c>
-      <c r="I27" s="97" t="s">
-        <v>149</v>
       </c>
       <c r="J27" s="97"/>
       <c r="K27" s="99"/>
       <c r="L27" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27" s="103"/>
       <c r="N27" s="100"/>
@@ -5954,28 +5948,28 @@
       <c r="A28" s="95">
         <v>19</v>
       </c>
-      <c r="B28" s="282"/>
-      <c r="C28" s="282"/>
-      <c r="D28" s="282"/>
+      <c r="B28" s="271"/>
+      <c r="C28" s="271"/>
+      <c r="D28" s="271"/>
       <c r="E28" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="97" t="s">
+      <c r="I28" s="97" t="s">
         <v>151</v>
-      </c>
-      <c r="I28" s="97" t="s">
-        <v>152</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="99"/>
       <c r="L28" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28" s="103"/>
       <c r="N28" s="100"/>
@@ -5999,30 +5993,30 @@
       <c r="A29" s="95">
         <v>20</v>
       </c>
-      <c r="B29" s="282"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
+      <c r="B29" s="271"/>
+      <c r="C29" s="271"/>
+      <c r="D29" s="271"/>
       <c r="E29" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="97" t="s">
+      <c r="I29" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="J29" s="105" t="s">
         <v>155</v>
-      </c>
-      <c r="J29" s="105" t="s">
-        <v>156</v>
       </c>
       <c r="K29" s="99"/>
       <c r="L29" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M29" s="103"/>
       <c r="N29" s="100"/>
@@ -6046,28 +6040,28 @@
       <c r="A30" s="95">
         <v>21</v>
       </c>
-      <c r="B30" s="282"/>
-      <c r="C30" s="282"/>
-      <c r="D30" s="282"/>
+      <c r="B30" s="271"/>
+      <c r="C30" s="271"/>
+      <c r="D30" s="271"/>
       <c r="E30" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="97" t="s">
+      <c r="I30" s="97" t="s">
         <v>158</v>
-      </c>
-      <c r="I30" s="97" t="s">
-        <v>159</v>
       </c>
       <c r="J30" s="97"/>
       <c r="K30" s="99"/>
       <c r="L30" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M30" s="103"/>
       <c r="N30" s="100"/>
@@ -6091,28 +6085,28 @@
       <c r="A31" s="95">
         <v>22</v>
       </c>
-      <c r="B31" s="282"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
       <c r="E31" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="G31" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="97" t="s">
         <v>161</v>
-      </c>
-      <c r="G31" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="97" t="s">
-        <v>162</v>
       </c>
       <c r="J31" s="97"/>
       <c r="K31" s="99"/>
       <c r="L31" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M31" s="103"/>
       <c r="N31" s="100"/>
@@ -6136,28 +6130,28 @@
       <c r="A32" s="95">
         <v>23</v>
       </c>
-      <c r="B32" s="282"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="282"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
       <c r="E32" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="64" t="s">
+      <c r="G32" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="97" t="s">
+      <c r="H32" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="107" t="s">
+      <c r="I32" s="98" t="s">
         <v>166</v>
-      </c>
-      <c r="I32" s="98" t="s">
-        <v>167</v>
       </c>
       <c r="J32" s="97"/>
       <c r="K32" s="97"/>
       <c r="L32" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M32" s="103"/>
       <c r="N32" s="100"/>
@@ -6181,28 +6175,28 @@
       <c r="A33" s="95">
         <v>24</v>
       </c>
-      <c r="B33" s="282"/>
-      <c r="C33" s="282"/>
-      <c r="D33" s="282"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
       <c r="E33" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="97" t="s">
+      <c r="G33" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="G33" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="107" t="s">
+      <c r="I33" s="98" t="s">
         <v>170</v>
-      </c>
-      <c r="I33" s="98" t="s">
-        <v>171</v>
       </c>
       <c r="J33" s="97"/>
       <c r="K33" s="97"/>
       <c r="L33" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M33" s="103"/>
       <c r="N33" s="100"/>
@@ -6226,28 +6220,28 @@
       <c r="A34" s="95">
         <v>25</v>
       </c>
-      <c r="B34" s="282"/>
-      <c r="C34" s="282"/>
-      <c r="D34" s="282"/>
+      <c r="B34" s="271"/>
+      <c r="C34" s="271"/>
+      <c r="D34" s="271"/>
       <c r="E34" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="98" t="s">
         <v>172</v>
-      </c>
-      <c r="F34" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G34" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="98" t="s">
-        <v>173</v>
       </c>
       <c r="J34" s="97"/>
       <c r="K34" s="97"/>
       <c r="L34" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M34" s="103"/>
       <c r="N34" s="100"/>
@@ -6271,28 +6265,28 @@
       <c r="A35" s="95">
         <v>26</v>
       </c>
-      <c r="B35" s="282"/>
-      <c r="C35" s="282"/>
-      <c r="D35" s="282"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="271"/>
       <c r="E35" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="G35" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="97" t="s">
+      <c r="I35" s="98" t="s">
         <v>176</v>
-      </c>
-      <c r="I35" s="98" t="s">
-        <v>177</v>
       </c>
       <c r="J35" s="97"/>
       <c r="K35" s="97"/>
       <c r="L35" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="100"/>
@@ -6316,28 +6310,28 @@
       <c r="A36" s="95">
         <v>27</v>
       </c>
-      <c r="B36" s="282"/>
-      <c r="C36" s="282"/>
-      <c r="D36" s="282"/>
+      <c r="B36" s="271"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="271"/>
       <c r="E36" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="G36" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="98" t="s">
         <v>179</v>
-      </c>
-      <c r="G36" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="98" t="s">
-        <v>180</v>
       </c>
       <c r="J36" s="97"/>
       <c r="K36" s="97"/>
       <c r="L36" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="100"/>
@@ -6361,28 +6355,28 @@
       <c r="A37" s="95">
         <v>28</v>
       </c>
-      <c r="B37" s="282"/>
-      <c r="C37" s="282"/>
-      <c r="D37" s="282"/>
+      <c r="B37" s="271"/>
+      <c r="C37" s="271"/>
+      <c r="D37" s="271"/>
       <c r="E37" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="G37" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="G37" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="97" t="s">
+      <c r="I37" s="98" t="s">
         <v>183</v>
-      </c>
-      <c r="I37" s="98" t="s">
-        <v>184</v>
       </c>
       <c r="J37" s="97"/>
       <c r="K37" s="97"/>
       <c r="L37" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="100"/>
@@ -6406,28 +6400,28 @@
       <c r="A38" s="95">
         <v>29</v>
       </c>
-      <c r="B38" s="282"/>
-      <c r="C38" s="282"/>
-      <c r="D38" s="282"/>
+      <c r="B38" s="271"/>
+      <c r="C38" s="271"/>
+      <c r="D38" s="271"/>
       <c r="E38" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="F38" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="107" t="s">
+      <c r="I38" s="98" t="s">
         <v>186</v>
-      </c>
-      <c r="I38" s="98" t="s">
-        <v>187</v>
       </c>
       <c r="J38" s="97"/>
       <c r="K38" s="97"/>
       <c r="L38" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="100"/>
@@ -6451,28 +6445,28 @@
       <c r="A39" s="95">
         <v>30</v>
       </c>
-      <c r="B39" s="282"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
+      <c r="B39" s="271"/>
+      <c r="C39" s="271"/>
+      <c r="D39" s="271"/>
       <c r="E39" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="97" t="s">
+      <c r="I39" s="98" t="s">
         <v>189</v>
-      </c>
-      <c r="I39" s="98" t="s">
-        <v>190</v>
       </c>
       <c r="J39" s="97"/>
       <c r="K39" s="97"/>
       <c r="L39" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="100"/>
@@ -6496,28 +6490,28 @@
       <c r="A40" s="95">
         <v>31</v>
       </c>
-      <c r="B40" s="282"/>
-      <c r="C40" s="282"/>
-      <c r="D40" s="282"/>
+      <c r="B40" s="271"/>
+      <c r="C40" s="271"/>
+      <c r="D40" s="271"/>
       <c r="E40" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="F40" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="98" t="s">
+      <c r="I40" s="98" t="s">
         <v>192</v>
-      </c>
-      <c r="I40" s="98" t="s">
-        <v>193</v>
       </c>
       <c r="J40" s="97"/>
       <c r="K40" s="97"/>
       <c r="L40" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="100"/>
@@ -6541,28 +6535,28 @@
       <c r="A41" s="95">
         <v>32</v>
       </c>
-      <c r="B41" s="282"/>
-      <c r="C41" s="282"/>
-      <c r="D41" s="282"/>
+      <c r="B41" s="271"/>
+      <c r="C41" s="271"/>
+      <c r="D41" s="271"/>
       <c r="E41" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="107" t="s">
+      <c r="I41" s="98" t="s">
         <v>195</v>
-      </c>
-      <c r="I41" s="98" t="s">
-        <v>196</v>
       </c>
       <c r="J41" s="97"/>
       <c r="K41" s="97"/>
       <c r="L41" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="100"/>
@@ -6586,28 +6580,28 @@
       <c r="A42" s="95">
         <v>33</v>
       </c>
-      <c r="B42" s="282"/>
-      <c r="C42" s="282"/>
-      <c r="D42" s="282"/>
+      <c r="B42" s="271"/>
+      <c r="C42" s="271"/>
+      <c r="D42" s="271"/>
       <c r="E42" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="G42" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="98" t="s">
         <v>198</v>
-      </c>
-      <c r="G42" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="98" t="s">
-        <v>199</v>
       </c>
       <c r="J42" s="97"/>
       <c r="K42" s="97"/>
       <c r="L42" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="100"/>
@@ -6631,28 +6625,28 @@
       <c r="A43" s="95">
         <v>34</v>
       </c>
-      <c r="B43" s="282"/>
-      <c r="C43" s="282"/>
-      <c r="D43" s="282"/>
+      <c r="B43" s="271"/>
+      <c r="C43" s="271"/>
+      <c r="D43" s="271"/>
       <c r="E43" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="G43" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="98" t="s">
+      <c r="I43" s="98" t="s">
         <v>202</v>
-      </c>
-      <c r="I43" s="98" t="s">
-        <v>203</v>
       </c>
       <c r="J43" s="97"/>
       <c r="K43" s="97"/>
       <c r="L43" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="100"/>
@@ -6676,28 +6670,28 @@
       <c r="A44" s="95">
         <v>35</v>
       </c>
-      <c r="B44" s="282"/>
-      <c r="C44" s="282"/>
-      <c r="D44" s="282"/>
+      <c r="B44" s="271"/>
+      <c r="C44" s="271"/>
+      <c r="D44" s="271"/>
       <c r="E44" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="G44" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H44" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="98" t="s">
+      <c r="I44" s="98" t="s">
         <v>206</v>
-      </c>
-      <c r="I44" s="98" t="s">
-        <v>207</v>
       </c>
       <c r="J44" s="97"/>
       <c r="K44" s="97"/>
       <c r="L44" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M44" s="66"/>
       <c r="N44" s="100"/>
@@ -6721,28 +6715,28 @@
       <c r="A45" s="95">
         <v>36</v>
       </c>
-      <c r="B45" s="282"/>
-      <c r="C45" s="282"/>
-      <c r="D45" s="282"/>
+      <c r="B45" s="271"/>
+      <c r="C45" s="271"/>
+      <c r="D45" s="271"/>
       <c r="E45" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="G45" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="97" t="s">
+      <c r="I45" s="98" t="s">
         <v>210</v>
-      </c>
-      <c r="I45" s="98" t="s">
-        <v>211</v>
       </c>
       <c r="J45" s="97"/>
       <c r="K45" s="97"/>
       <c r="L45" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M45" s="66"/>
       <c r="N45" s="100"/>
@@ -6766,28 +6760,28 @@
       <c r="A46" s="95">
         <v>37</v>
       </c>
-      <c r="B46" s="282"/>
-      <c r="C46" s="282"/>
-      <c r="D46" s="282"/>
+      <c r="B46" s="271"/>
+      <c r="C46" s="271"/>
+      <c r="D46" s="271"/>
       <c r="E46" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="G46" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H46" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="98" t="s">
         <v>213</v>
-      </c>
-      <c r="G46" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I46" s="98" t="s">
-        <v>214</v>
       </c>
       <c r="J46" s="97"/>
       <c r="K46" s="97"/>
       <c r="L46" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M46" s="66"/>
       <c r="N46" s="100"/>
@@ -6811,28 +6805,28 @@
       <c r="A47" s="95">
         <v>38</v>
       </c>
-      <c r="B47" s="282"/>
-      <c r="C47" s="282"/>
-      <c r="D47" s="282"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="271"/>
+      <c r="D47" s="271"/>
       <c r="E47" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="G47" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="97" t="s">
+      <c r="I47" s="98" t="s">
         <v>217</v>
-      </c>
-      <c r="I47" s="98" t="s">
-        <v>218</v>
       </c>
       <c r="J47" s="97"/>
       <c r="K47" s="97"/>
       <c r="L47" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M47" s="66"/>
       <c r="N47" s="100"/>
@@ -6856,28 +6850,28 @@
       <c r="A48" s="95">
         <v>39</v>
       </c>
-      <c r="B48" s="282"/>
-      <c r="C48" s="282"/>
-      <c r="D48" s="282"/>
+      <c r="B48" s="271"/>
+      <c r="C48" s="271"/>
+      <c r="D48" s="271"/>
       <c r="E48" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="G48" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H48" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="97" t="s">
+      <c r="I48" s="98" t="s">
         <v>221</v>
-      </c>
-      <c r="I48" s="98" t="s">
-        <v>222</v>
       </c>
       <c r="J48" s="97"/>
       <c r="K48" s="97"/>
       <c r="L48" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M48" s="66"/>
       <c r="N48" s="100"/>
@@ -6901,28 +6895,28 @@
       <c r="A49" s="95">
         <v>40</v>
       </c>
-      <c r="B49" s="282"/>
-      <c r="C49" s="282"/>
-      <c r="D49" s="282"/>
+      <c r="B49" s="271"/>
+      <c r="C49" s="271"/>
+      <c r="D49" s="271"/>
       <c r="E49" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="97" t="s">
+      <c r="I49" s="98" t="s">
         <v>224</v>
-      </c>
-      <c r="I49" s="98" t="s">
-        <v>225</v>
       </c>
       <c r="J49" s="97"/>
       <c r="K49" s="97"/>
       <c r="L49" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M49" s="66"/>
       <c r="N49" s="100"/>
@@ -6946,28 +6940,28 @@
       <c r="A50" s="95">
         <v>41</v>
       </c>
-      <c r="B50" s="282"/>
-      <c r="C50" s="282"/>
-      <c r="D50" s="282"/>
+      <c r="B50" s="271"/>
+      <c r="C50" s="271"/>
+      <c r="D50" s="271"/>
       <c r="E50" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="98" t="s">
         <v>226</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="G50" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="98" t="s">
-        <v>227</v>
       </c>
       <c r="J50" s="97"/>
       <c r="K50" s="97"/>
       <c r="L50" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M50" s="66"/>
       <c r="N50" s="100"/>
@@ -6991,28 +6985,28 @@
       <c r="A51" s="95">
         <v>42</v>
       </c>
-      <c r="B51" s="282"/>
-      <c r="C51" s="282"/>
-      <c r="D51" s="282"/>
+      <c r="B51" s="271"/>
+      <c r="C51" s="271"/>
+      <c r="D51" s="271"/>
       <c r="E51" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="F51" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="G51" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="97" t="s">
+      <c r="I51" s="98" t="s">
         <v>229</v>
-      </c>
-      <c r="I51" s="98" t="s">
-        <v>230</v>
       </c>
       <c r="J51" s="97"/>
       <c r="K51" s="97"/>
       <c r="L51" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M51" s="66"/>
       <c r="N51" s="100"/>
@@ -7036,30 +7030,30 @@
       <c r="A52" s="95">
         <v>43</v>
       </c>
-      <c r="B52" s="282"/>
-      <c r="C52" s="282"/>
-      <c r="D52" s="282"/>
+      <c r="B52" s="271"/>
+      <c r="C52" s="271"/>
+      <c r="D52" s="271"/>
       <c r="E52" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="G52" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="G52" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="98" t="s">
+      <c r="I52" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="I52" s="98" t="s">
+      <c r="J52" s="105" t="s">
         <v>234</v>
-      </c>
-      <c r="J52" s="105" t="s">
-        <v>235</v>
       </c>
       <c r="K52" s="97"/>
       <c r="L52" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M52" s="66"/>
       <c r="N52" s="100"/>
@@ -7083,28 +7077,28 @@
       <c r="A53" s="95">
         <v>44</v>
       </c>
-      <c r="B53" s="282"/>
-      <c r="C53" s="282"/>
-      <c r="D53" s="282"/>
+      <c r="B53" s="271"/>
+      <c r="C53" s="271"/>
+      <c r="D53" s="271"/>
       <c r="E53" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="98" t="s">
+      <c r="I53" s="98" t="s">
         <v>237</v>
-      </c>
-      <c r="I53" s="98" t="s">
-        <v>238</v>
       </c>
       <c r="J53" s="97"/>
       <c r="K53" s="97"/>
       <c r="L53" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M53" s="66"/>
       <c r="N53" s="100"/>
@@ -7128,28 +7122,28 @@
       <c r="A54" s="95">
         <v>45</v>
       </c>
-      <c r="B54" s="282"/>
-      <c r="C54" s="282"/>
-      <c r="D54" s="282"/>
+      <c r="B54" s="271"/>
+      <c r="C54" s="271"/>
+      <c r="D54" s="271"/>
       <c r="E54" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="F54" s="97" t="s">
+      <c r="G54" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" s="98" t="s">
         <v>240</v>
-      </c>
-      <c r="G54" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" s="98" t="s">
-        <v>237</v>
-      </c>
-      <c r="I54" s="98" t="s">
-        <v>241</v>
       </c>
       <c r="J54" s="97"/>
       <c r="K54" s="97"/>
       <c r="L54" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M54" s="66"/>
       <c r="N54" s="100"/>
@@ -7173,28 +7167,28 @@
       <c r="A55" s="95">
         <v>46</v>
       </c>
-      <c r="B55" s="282"/>
-      <c r="C55" s="282"/>
-      <c r="D55" s="282"/>
+      <c r="B55" s="271"/>
+      <c r="C55" s="271"/>
+      <c r="D55" s="271"/>
       <c r="E55" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="F55" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="F55" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="97" t="s">
+      <c r="I55" s="98" t="s">
         <v>243</v>
-      </c>
-      <c r="I55" s="98" t="s">
-        <v>244</v>
       </c>
       <c r="J55" s="97"/>
       <c r="K55" s="97"/>
       <c r="L55" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M55" s="103"/>
       <c r="N55" s="100"/>
@@ -7218,28 +7212,28 @@
       <c r="A56" s="95">
         <v>47</v>
       </c>
-      <c r="B56" s="282"/>
-      <c r="C56" s="282"/>
-      <c r="D56" s="282"/>
+      <c r="B56" s="271"/>
+      <c r="C56" s="271"/>
+      <c r="D56" s="271"/>
       <c r="E56" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="G56" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="97" t="s">
+      <c r="I56" s="97" t="s">
         <v>246</v>
-      </c>
-      <c r="I56" s="97" t="s">
-        <v>247</v>
       </c>
       <c r="J56" s="97"/>
       <c r="K56" s="97"/>
       <c r="L56" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M56" s="66"/>
       <c r="N56" s="100"/>
@@ -7261,9 +7255,9 @@
     </row>
     <row r="57" spans="1:29" s="112" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="108"/>
-      <c r="B57" s="282"/>
+      <c r="B57" s="271"/>
       <c r="C57" s="109"/>
-      <c r="D57" s="282"/>
+      <c r="D57" s="271"/>
       <c r="E57" s="110"/>
       <c r="F57" s="88"/>
       <c r="G57" s="88"/>
@@ -7294,30 +7288,30 @@
       <c r="A58" s="95">
         <v>48</v>
       </c>
-      <c r="B58" s="282"/>
-      <c r="C58" s="282" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" s="282"/>
+      <c r="B58" s="271"/>
+      <c r="C58" s="271" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="271"/>
       <c r="E58" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="F58" s="97" t="s">
+      <c r="G58" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="G58" s="97" t="s">
+      <c r="H58" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="H58" s="107" t="s">
+      <c r="I58" s="97" t="s">
         <v>251</v>
-      </c>
-      <c r="I58" s="97" t="s">
-        <v>252</v>
       </c>
       <c r="J58" s="97"/>
       <c r="K58" s="97"/>
       <c r="L58" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M58" s="66"/>
       <c r="N58" s="100"/>
@@ -7341,28 +7335,28 @@
       <c r="A59" s="95">
         <v>49</v>
       </c>
-      <c r="B59" s="282"/>
-      <c r="C59" s="282"/>
-      <c r="D59" s="282"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="271"/>
+      <c r="D59" s="271"/>
       <c r="E59" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="F59" s="97" t="s">
+      <c r="G59" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="H59" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="G59" s="97" t="s">
-        <v>250</v>
-      </c>
-      <c r="H59" s="97" t="s">
+      <c r="I59" s="97" t="s">
         <v>255</v>
-      </c>
-      <c r="I59" s="97" t="s">
-        <v>256</v>
       </c>
       <c r="J59" s="97"/>
       <c r="K59" s="97"/>
       <c r="L59" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M59" s="66"/>
       <c r="N59" s="100"/>
@@ -7386,28 +7380,28 @@
       <c r="A60" s="95">
         <v>50</v>
       </c>
-      <c r="B60" s="282"/>
-      <c r="C60" s="282"/>
-      <c r="D60" s="282"/>
+      <c r="B60" s="271"/>
+      <c r="C60" s="271"/>
+      <c r="D60" s="271"/>
       <c r="E60" s="113" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="F60" s="97" t="s">
+      <c r="G60" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="H60" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="G60" s="97" t="s">
-        <v>250</v>
-      </c>
-      <c r="H60" s="97" t="s">
+      <c r="I60" s="97" t="s">
         <v>259</v>
-      </c>
-      <c r="I60" s="97" t="s">
-        <v>260</v>
       </c>
       <c r="J60" s="97"/>
       <c r="K60" s="97"/>
       <c r="L60" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M60" s="66"/>
       <c r="N60" s="100"/>
@@ -7429,7 +7423,7 @@
     </row>
     <row r="61" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A61" s="95"/>
-      <c r="B61" s="282"/>
+      <c r="B61" s="271"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="116"/>
@@ -7462,32 +7456,32 @@
       <c r="A62" s="95">
         <v>51</v>
       </c>
-      <c r="B62" s="282"/>
-      <c r="C62" s="284" t="s">
+      <c r="B62" s="271"/>
+      <c r="C62" s="273" t="s">
+        <v>260</v>
+      </c>
+      <c r="D62" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="284" t="s">
+      <c r="E62" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="E62" s="97" t="s">
+      <c r="F62" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="F62" s="97" t="s">
+      <c r="G62" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="98" t="s">
         <v>264</v>
-      </c>
-      <c r="G62" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" s="98" t="s">
-        <v>265</v>
       </c>
       <c r="J62" s="97"/>
       <c r="K62" s="97"/>
       <c r="L62" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M62" s="66"/>
       <c r="N62" s="100"/>
@@ -7511,28 +7505,28 @@
       <c r="A63" s="95">
         <v>52</v>
       </c>
-      <c r="B63" s="282"/>
-      <c r="C63" s="284"/>
-      <c r="D63" s="284"/>
+      <c r="B63" s="271"/>
+      <c r="C63" s="273"/>
+      <c r="D63" s="273"/>
       <c r="E63" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="F63" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="98" t="s">
         <v>266</v>
-      </c>
-      <c r="F63" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="I63" s="98" t="s">
-        <v>267</v>
       </c>
       <c r="J63" s="97"/>
       <c r="K63" s="99"/>
       <c r="L63" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M63" s="103"/>
       <c r="N63" s="100"/>
@@ -7556,28 +7550,28 @@
       <c r="A64" s="95">
         <v>53</v>
       </c>
-      <c r="B64" s="282"/>
-      <c r="C64" s="284"/>
-      <c r="D64" s="284"/>
+      <c r="B64" s="271"/>
+      <c r="C64" s="273"/>
+      <c r="D64" s="273"/>
       <c r="E64" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="97" t="s">
+        <v>263</v>
+      </c>
+      <c r="G64" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="F64" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="G64" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" s="107" t="s">
+      <c r="I64" s="98" t="s">
         <v>269</v>
-      </c>
-      <c r="I64" s="98" t="s">
-        <v>270</v>
       </c>
       <c r="J64" s="97"/>
       <c r="K64" s="97"/>
       <c r="L64" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M64" s="103"/>
       <c r="N64" s="100"/>
@@ -7592,28 +7586,28 @@
       <c r="A65" s="95">
         <v>54</v>
       </c>
-      <c r="B65" s="282"/>
-      <c r="C65" s="284"/>
-      <c r="D65" s="284"/>
+      <c r="B65" s="271"/>
+      <c r="C65" s="273"/>
+      <c r="D65" s="273"/>
       <c r="E65" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="F65" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="G65" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H65" s="98" t="s">
+      <c r="I65" s="98" t="s">
         <v>272</v>
-      </c>
-      <c r="I65" s="98" t="s">
-        <v>273</v>
       </c>
       <c r="J65" s="97"/>
       <c r="K65" s="97"/>
       <c r="L65" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M65" s="103"/>
       <c r="N65" s="100"/>
@@ -7637,28 +7631,28 @@
       <c r="A66" s="95">
         <v>55</v>
       </c>
-      <c r="B66" s="282"/>
-      <c r="C66" s="284"/>
-      <c r="D66" s="284"/>
+      <c r="B66" s="271"/>
+      <c r="C66" s="273"/>
+      <c r="D66" s="273"/>
       <c r="E66" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="F66" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="F66" s="97" t="s">
+      <c r="G66" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="98" t="s">
         <v>275</v>
-      </c>
-      <c r="G66" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I66" s="98" t="s">
-        <v>276</v>
       </c>
       <c r="J66" s="97"/>
       <c r="K66" s="97"/>
       <c r="L66" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M66" s="103"/>
       <c r="N66" s="100"/>
@@ -7682,28 +7676,28 @@
       <c r="A67" s="95">
         <v>56</v>
       </c>
-      <c r="B67" s="282"/>
-      <c r="C67" s="284"/>
-      <c r="D67" s="284"/>
+      <c r="B67" s="271"/>
+      <c r="C67" s="273"/>
+      <c r="D67" s="273"/>
       <c r="E67" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="F67" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="F67" s="98" t="s">
+      <c r="G67" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="G67" s="97" t="s">
+      <c r="H67" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" s="98" t="s">
         <v>279</v>
-      </c>
-      <c r="H67" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I67" s="98" t="s">
-        <v>280</v>
       </c>
       <c r="J67" s="120"/>
       <c r="K67" s="120"/>
       <c r="L67" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M67" s="121"/>
       <c r="N67" s="100"/>
@@ -7727,28 +7721,28 @@
       <c r="A68" s="95">
         <v>57</v>
       </c>
-      <c r="B68" s="282"/>
-      <c r="C68" s="284"/>
-      <c r="D68" s="284"/>
+      <c r="B68" s="271"/>
+      <c r="C68" s="273"/>
+      <c r="D68" s="273"/>
       <c r="E68" s="104" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="F68" s="97" t="s">
+      <c r="G68" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="98" t="s">
         <v>282</v>
-      </c>
-      <c r="G68" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="98" t="s">
-        <v>283</v>
       </c>
       <c r="J68" s="97"/>
       <c r="K68" s="97"/>
       <c r="L68" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M68" s="103"/>
       <c r="N68" s="100"/>
@@ -7772,28 +7766,28 @@
       <c r="A69" s="95">
         <v>58</v>
       </c>
-      <c r="B69" s="282"/>
-      <c r="C69" s="284"/>
-      <c r="D69" s="284"/>
+      <c r="B69" s="271"/>
+      <c r="C69" s="273"/>
+      <c r="D69" s="273"/>
       <c r="E69" s="104" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="F69" s="97" t="s">
+      <c r="G69" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="98" t="s">
         <v>285</v>
-      </c>
-      <c r="G69" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I69" s="98" t="s">
-        <v>286</v>
       </c>
       <c r="J69" s="97"/>
       <c r="K69" s="97"/>
       <c r="L69" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M69" s="103"/>
       <c r="N69" s="100"/>
@@ -7817,28 +7811,28 @@
       <c r="A70" s="95">
         <v>59</v>
       </c>
-      <c r="B70" s="282"/>
-      <c r="C70" s="284"/>
-      <c r="D70" s="284"/>
+      <c r="B70" s="271"/>
+      <c r="C70" s="273"/>
+      <c r="D70" s="273"/>
       <c r="E70" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="97" t="s">
         <v>287</v>
       </c>
-      <c r="F70" s="97" t="s">
+      <c r="G70" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="G70" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H70" s="98" t="s">
+      <c r="I70" s="98" t="s">
         <v>289</v>
-      </c>
-      <c r="I70" s="98" t="s">
-        <v>290</v>
       </c>
       <c r="J70" s="97"/>
       <c r="K70" s="97"/>
       <c r="L70" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M70" s="103"/>
       <c r="N70" s="100"/>
@@ -7862,28 +7856,28 @@
       <c r="A71" s="95">
         <v>60</v>
       </c>
-      <c r="B71" s="282"/>
-      <c r="C71" s="284"/>
-      <c r="D71" s="284"/>
+      <c r="B71" s="271"/>
+      <c r="C71" s="273"/>
+      <c r="D71" s="273"/>
       <c r="E71" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="F71" s="97" t="s">
+      <c r="G71" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="H71" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="I71" s="98" t="s">
         <v>292</v>
-      </c>
-      <c r="G71" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="H71" s="98" t="s">
-        <v>272</v>
-      </c>
-      <c r="I71" s="98" t="s">
-        <v>293</v>
       </c>
       <c r="J71" s="97"/>
       <c r="K71" s="97"/>
       <c r="L71" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M71" s="103"/>
       <c r="N71" s="100"/>
@@ -7907,28 +7901,28 @@
       <c r="A72" s="95">
         <v>61</v>
       </c>
-      <c r="B72" s="282"/>
-      <c r="C72" s="284"/>
-      <c r="D72" s="284"/>
+      <c r="B72" s="271"/>
+      <c r="C72" s="273"/>
+      <c r="D72" s="273"/>
       <c r="E72" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="F72" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="F72" s="97" t="s">
+      <c r="G72" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="I72" s="98" t="s">
         <v>295</v>
-      </c>
-      <c r="G72" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="I72" s="98" t="s">
-        <v>296</v>
       </c>
       <c r="J72" s="97"/>
       <c r="K72" s="97"/>
       <c r="L72" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M72" s="103"/>
       <c r="N72" s="100"/>
@@ -7952,28 +7946,28 @@
       <c r="A73" s="95">
         <v>62</v>
       </c>
-      <c r="B73" s="282"/>
-      <c r="C73" s="284"/>
-      <c r="D73" s="284"/>
+      <c r="B73" s="271"/>
+      <c r="C73" s="273"/>
+      <c r="D73" s="273"/>
       <c r="E73" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="F73" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="F73" s="97" t="s">
+      <c r="G73" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="98" t="s">
         <v>298</v>
-      </c>
-      <c r="G73" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="I73" s="98" t="s">
-        <v>299</v>
       </c>
       <c r="J73" s="97"/>
       <c r="K73" s="97"/>
       <c r="L73" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M73" s="103"/>
       <c r="N73" s="100"/>
@@ -7995,7 +7989,7 @@
     </row>
     <row r="74" spans="1:29" s="112" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="108"/>
-      <c r="B74" s="282"/>
+      <c r="B74" s="271"/>
       <c r="C74" s="122"/>
       <c r="D74" s="123"/>
       <c r="E74" s="124"/>
@@ -8026,13 +8020,13 @@
     </row>
     <row r="75" spans="1:29" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A75" s="95"/>
-      <c r="B75" s="282"/>
-      <c r="C75" s="285"/>
-      <c r="D75" s="286" t="s">
+      <c r="B75" s="271"/>
+      <c r="C75" s="274"/>
+      <c r="D75" s="275" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="104" t="s">
         <v>300</v>
-      </c>
-      <c r="E75" s="104" t="s">
-        <v>301</v>
       </c>
       <c r="F75" s="97"/>
       <c r="G75" s="97"/>
@@ -8061,11 +8055,11 @@
     </row>
     <row r="76" spans="1:29" s="102" customFormat="1" ht="28.5" customHeight="1">
       <c r="A76" s="95"/>
-      <c r="B76" s="282"/>
-      <c r="C76" s="285"/>
-      <c r="D76" s="286"/>
+      <c r="B76" s="271"/>
+      <c r="C76" s="274"/>
+      <c r="D76" s="275"/>
       <c r="E76" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F76" s="97"/>
       <c r="G76" s="97"/>
@@ -8094,11 +8088,11 @@
     </row>
     <row r="77" spans="1:29" s="102" customFormat="1" ht="26.25" customHeight="1">
       <c r="A77" s="95"/>
-      <c r="B77" s="282"/>
-      <c r="C77" s="285"/>
-      <c r="D77" s="286"/>
+      <c r="B77" s="271"/>
+      <c r="C77" s="274"/>
+      <c r="D77" s="275"/>
       <c r="E77" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F77" s="78"/>
       <c r="G77" s="97"/>
@@ -8127,11 +8121,11 @@
     </row>
     <row r="78" spans="1:29" s="102" customFormat="1" ht="30" customHeight="1">
       <c r="A78" s="95"/>
-      <c r="B78" s="282"/>
-      <c r="C78" s="285"/>
-      <c r="D78" s="286"/>
+      <c r="B78" s="271"/>
+      <c r="C78" s="274"/>
+      <c r="D78" s="275"/>
       <c r="E78" s="97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F78" s="97"/>
       <c r="G78" s="97"/>
@@ -8160,8 +8154,8 @@
     </row>
     <row r="79" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A79" s="95"/>
-      <c r="B79" s="282"/>
-      <c r="C79" s="285"/>
+      <c r="B79" s="271"/>
+      <c r="C79" s="274"/>
       <c r="D79" s="127"/>
       <c r="E79" s="128"/>
       <c r="F79" s="97"/>
@@ -8191,7 +8185,7 @@
     </row>
     <row r="80" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="129"/>
-      <c r="B80" s="282"/>
+      <c r="B80" s="271"/>
       <c r="C80" s="126"/>
       <c r="D80" s="127"/>
       <c r="E80" s="128"/>
@@ -8222,7 +8216,7 @@
     </row>
     <row r="81" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A81" s="129"/>
-      <c r="B81" s="282"/>
+      <c r="B81" s="271"/>
       <c r="C81" s="126"/>
       <c r="D81" s="127"/>
       <c r="E81" s="130"/>
@@ -8253,7 +8247,7 @@
     </row>
     <row r="82" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="129"/>
-      <c r="B82" s="282"/>
+      <c r="B82" s="271"/>
       <c r="C82" s="126"/>
       <c r="D82" s="127"/>
       <c r="E82" s="130"/>
@@ -8284,7 +8278,7 @@
     </row>
     <row r="83" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="129"/>
-      <c r="B83" s="282"/>
+      <c r="B83" s="271"/>
       <c r="C83" s="126"/>
       <c r="D83" s="127"/>
       <c r="E83" s="130"/>
@@ -8315,7 +8309,7 @@
     </row>
     <row r="84" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="129"/>
-      <c r="B84" s="282"/>
+      <c r="B84" s="271"/>
       <c r="C84" s="126"/>
       <c r="D84" s="127"/>
       <c r="E84" s="130"/>
@@ -8346,7 +8340,7 @@
     </row>
     <row r="85" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="129"/>
-      <c r="B85" s="282"/>
+      <c r="B85" s="271"/>
       <c r="C85" s="126"/>
       <c r="D85" s="131"/>
       <c r="E85" s="130"/>
@@ -8377,9 +8371,9 @@
     </row>
     <row r="86" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A86" s="129"/>
-      <c r="B86" s="282"/>
+      <c r="B86" s="271"/>
       <c r="C86" s="126"/>
-      <c r="D86" s="287"/>
+      <c r="D86" s="276"/>
       <c r="E86" s="130"/>
       <c r="F86" s="78"/>
       <c r="G86" s="97"/>
@@ -8408,9 +8402,9 @@
     </row>
     <row r="87" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="129"/>
-      <c r="B87" s="282"/>
+      <c r="B87" s="271"/>
       <c r="C87" s="126"/>
-      <c r="D87" s="287"/>
+      <c r="D87" s="276"/>
       <c r="E87" s="130"/>
       <c r="F87" s="97"/>
       <c r="G87" s="97"/>
@@ -8439,9 +8433,9 @@
     </row>
     <row r="88" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A88" s="129"/>
-      <c r="B88" s="282"/>
+      <c r="B88" s="271"/>
       <c r="C88" s="126"/>
-      <c r="D88" s="287"/>
+      <c r="D88" s="276"/>
       <c r="E88" s="132"/>
       <c r="F88" s="63"/>
       <c r="G88" s="97"/>
@@ -8470,9 +8464,9 @@
     </row>
     <row r="89" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A89" s="129"/>
-      <c r="B89" s="282"/>
+      <c r="B89" s="271"/>
       <c r="C89" s="126"/>
-      <c r="D89" s="287"/>
+      <c r="D89" s="276"/>
       <c r="E89" s="132"/>
       <c r="F89" s="63"/>
       <c r="G89" s="97"/>
@@ -8501,9 +8495,9 @@
     </row>
     <row r="90" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A90" s="129"/>
-      <c r="B90" s="282"/>
+      <c r="B90" s="271"/>
       <c r="C90" s="126"/>
-      <c r="D90" s="287"/>
+      <c r="D90" s="276"/>
       <c r="E90" s="132"/>
       <c r="F90" s="63"/>
       <c r="G90" s="97"/>
@@ -8532,7 +8526,7 @@
     </row>
     <row r="91" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="129"/>
-      <c r="B91" s="282"/>
+      <c r="B91" s="271"/>
       <c r="C91" s="126"/>
       <c r="D91" s="133"/>
       <c r="E91" s="134"/>
@@ -8563,9 +8557,9 @@
     </row>
     <row r="92" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="129"/>
-      <c r="B92" s="282"/>
+      <c r="B92" s="271"/>
       <c r="C92" s="126"/>
-      <c r="D92" s="287"/>
+      <c r="D92" s="276"/>
       <c r="E92" s="128"/>
       <c r="F92" s="97"/>
       <c r="G92" s="97"/>
@@ -8594,9 +8588,9 @@
     </row>
     <row r="93" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="129"/>
-      <c r="B93" s="282"/>
+      <c r="B93" s="271"/>
       <c r="C93" s="126"/>
-      <c r="D93" s="287"/>
+      <c r="D93" s="276"/>
       <c r="E93" s="128"/>
       <c r="F93" s="97"/>
       <c r="G93" s="97"/>
@@ -8625,7 +8619,7 @@
     </row>
     <row r="94" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A94" s="129"/>
-      <c r="B94" s="282"/>
+      <c r="B94" s="271"/>
       <c r="C94" s="126"/>
       <c r="D94" s="135"/>
       <c r="E94" s="130"/>
@@ -8656,9 +8650,9 @@
     </row>
     <row r="95" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A95" s="129"/>
-      <c r="B95" s="282"/>
+      <c r="B95" s="271"/>
       <c r="C95" s="126"/>
-      <c r="D95" s="288"/>
+      <c r="D95" s="277"/>
       <c r="E95" s="130"/>
       <c r="F95" s="97"/>
       <c r="G95" s="97"/>
@@ -8687,9 +8681,9 @@
     </row>
     <row r="96" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A96" s="129"/>
-      <c r="B96" s="282"/>
+      <c r="B96" s="271"/>
       <c r="C96" s="126"/>
-      <c r="D96" s="288"/>
+      <c r="D96" s="277"/>
       <c r="E96" s="130"/>
       <c r="F96" s="97"/>
       <c r="G96" s="97"/>
@@ -8718,9 +8712,9 @@
     </row>
     <row r="97" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A97" s="129"/>
-      <c r="B97" s="282"/>
+      <c r="B97" s="271"/>
       <c r="C97" s="126"/>
-      <c r="D97" s="288"/>
+      <c r="D97" s="277"/>
       <c r="E97" s="132"/>
       <c r="F97" s="63"/>
       <c r="G97" s="97"/>
@@ -8749,9 +8743,9 @@
     </row>
     <row r="98" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A98" s="129"/>
-      <c r="B98" s="282"/>
+      <c r="B98" s="271"/>
       <c r="C98" s="126"/>
-      <c r="D98" s="288"/>
+      <c r="D98" s="277"/>
       <c r="E98" s="128"/>
       <c r="F98" s="97"/>
       <c r="G98" s="97"/>
@@ -8780,9 +8774,9 @@
     </row>
     <row r="99" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A99" s="129"/>
-      <c r="B99" s="282"/>
+      <c r="B99" s="271"/>
       <c r="C99" s="126"/>
-      <c r="D99" s="288"/>
+      <c r="D99" s="277"/>
       <c r="E99" s="128"/>
       <c r="F99" s="97"/>
       <c r="G99" s="97"/>
@@ -8811,9 +8805,9 @@
     </row>
     <row r="100" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A100" s="129"/>
-      <c r="B100" s="282"/>
+      <c r="B100" s="271"/>
       <c r="C100" s="126"/>
-      <c r="D100" s="288"/>
+      <c r="D100" s="277"/>
       <c r="E100" s="130"/>
       <c r="F100" s="97"/>
       <c r="G100" s="97"/>
@@ -8842,9 +8836,9 @@
     </row>
     <row r="101" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A101" s="129"/>
-      <c r="B101" s="282"/>
+      <c r="B101" s="271"/>
       <c r="C101" s="126"/>
-      <c r="D101" s="288"/>
+      <c r="D101" s="277"/>
       <c r="E101" s="130"/>
       <c r="F101" s="97"/>
       <c r="G101" s="97"/>
@@ -8873,9 +8867,9 @@
     </row>
     <row r="102" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A102" s="129"/>
-      <c r="B102" s="282"/>
+      <c r="B102" s="271"/>
       <c r="C102" s="126"/>
-      <c r="D102" s="288"/>
+      <c r="D102" s="277"/>
       <c r="E102" s="130"/>
       <c r="F102" s="97"/>
       <c r="G102" s="97"/>
@@ -8904,9 +8898,9 @@
     </row>
     <row r="103" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A103" s="129"/>
-      <c r="B103" s="282"/>
+      <c r="B103" s="271"/>
       <c r="C103" s="126"/>
-      <c r="D103" s="288"/>
+      <c r="D103" s="277"/>
       <c r="E103" s="132"/>
       <c r="F103" s="63"/>
       <c r="G103" s="97"/>
@@ -8935,9 +8929,9 @@
     </row>
     <row r="104" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A104" s="129"/>
-      <c r="B104" s="282"/>
+      <c r="B104" s="271"/>
       <c r="C104" s="126"/>
-      <c r="D104" s="288"/>
+      <c r="D104" s="277"/>
       <c r="E104" s="134"/>
       <c r="F104" s="103"/>
       <c r="G104" s="103"/>
@@ -8966,9 +8960,9 @@
     </row>
     <row r="105" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A105" s="129"/>
-      <c r="B105" s="282"/>
+      <c r="B105" s="271"/>
       <c r="C105" s="126"/>
-      <c r="D105" s="288"/>
+      <c r="D105" s="277"/>
       <c r="E105" s="128"/>
       <c r="F105" s="97"/>
       <c r="G105" s="97"/>
@@ -8997,7 +8991,7 @@
     </row>
     <row r="106" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A106" s="129"/>
-      <c r="B106" s="282"/>
+      <c r="B106" s="271"/>
       <c r="C106" s="126"/>
       <c r="D106" s="135"/>
       <c r="E106" s="128"/>
@@ -9028,9 +9022,9 @@
     </row>
     <row r="107" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A107" s="129"/>
-      <c r="B107" s="282"/>
+      <c r="B107" s="271"/>
       <c r="C107" s="126"/>
-      <c r="D107" s="289"/>
+      <c r="D107" s="278"/>
       <c r="E107" s="130"/>
       <c r="F107" s="97"/>
       <c r="G107" s="97"/>
@@ -9059,9 +9053,9 @@
     </row>
     <row r="108" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A108" s="129"/>
-      <c r="B108" s="282"/>
+      <c r="B108" s="271"/>
       <c r="C108" s="126"/>
-      <c r="D108" s="289"/>
+      <c r="D108" s="278"/>
       <c r="E108" s="130"/>
       <c r="F108" s="97"/>
       <c r="G108" s="97"/>
@@ -9090,9 +9084,9 @@
     </row>
     <row r="109" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A109" s="129"/>
-      <c r="B109" s="282"/>
+      <c r="B109" s="271"/>
       <c r="C109" s="126"/>
-      <c r="D109" s="289"/>
+      <c r="D109" s="278"/>
       <c r="E109" s="130"/>
       <c r="F109" s="97"/>
       <c r="G109" s="97"/>
@@ -9121,9 +9115,9 @@
     </row>
     <row r="110" spans="1:29" s="102" customFormat="1" ht="15.75" customHeight="1">
       <c r="A110" s="129"/>
-      <c r="B110" s="282"/>
+      <c r="B110" s="271"/>
       <c r="C110" s="126"/>
-      <c r="D110" s="289"/>
+      <c r="D110" s="278"/>
       <c r="E110" s="132"/>
       <c r="F110" s="63"/>
       <c r="G110" s="97"/>
@@ -9152,9 +9146,9 @@
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
       <c r="A111" s="137"/>
-      <c r="B111" s="282"/>
+      <c r="B111" s="271"/>
       <c r="C111" s="138"/>
-      <c r="D111" s="289"/>
+      <c r="D111" s="278"/>
       <c r="E111" s="139"/>
       <c r="F111" s="140"/>
       <c r="G111" s="140"/>
@@ -9183,9 +9177,9 @@
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
       <c r="A112" s="143"/>
-      <c r="B112" s="282"/>
+      <c r="B112" s="271"/>
       <c r="C112" s="138"/>
-      <c r="D112" s="289"/>
+      <c r="D112" s="278"/>
       <c r="E112" s="144"/>
       <c r="F112" s="145"/>
       <c r="G112" s="146"/>
@@ -9214,9 +9208,9 @@
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
       <c r="A113" s="143"/>
-      <c r="B113" s="282"/>
+      <c r="B113" s="271"/>
       <c r="C113" s="138"/>
-      <c r="D113" s="289"/>
+      <c r="D113" s="278"/>
       <c r="E113" s="150"/>
       <c r="F113" s="151"/>
       <c r="G113" s="151"/>
@@ -9245,9 +9239,9 @@
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="143"/>
-      <c r="B114" s="282"/>
+      <c r="B114" s="271"/>
       <c r="C114" s="138"/>
-      <c r="D114" s="289"/>
+      <c r="D114" s="278"/>
       <c r="E114" s="150"/>
       <c r="F114" s="151"/>
       <c r="G114" s="151"/>
@@ -9276,9 +9270,9 @@
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
       <c r="A115" s="143"/>
-      <c r="B115" s="282"/>
+      <c r="B115" s="271"/>
       <c r="C115" s="138"/>
-      <c r="D115" s="289"/>
+      <c r="D115" s="278"/>
       <c r="E115" s="154"/>
       <c r="F115" s="151"/>
       <c r="G115" s="151"/>
@@ -9307,9 +9301,9 @@
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="143"/>
-      <c r="B116" s="282"/>
+      <c r="B116" s="271"/>
       <c r="C116" s="138"/>
-      <c r="D116" s="289"/>
+      <c r="D116" s="278"/>
       <c r="E116" s="155"/>
       <c r="F116" s="145"/>
       <c r="G116" s="146"/>
@@ -9338,7 +9332,7 @@
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="143"/>
-      <c r="B117" s="282"/>
+      <c r="B117" s="271"/>
       <c r="C117" s="138"/>
       <c r="D117" s="156"/>
       <c r="E117" s="144"/>
@@ -9369,9 +9363,9 @@
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="143"/>
-      <c r="B118" s="282"/>
+      <c r="B118" s="271"/>
       <c r="C118" s="138"/>
-      <c r="D118" s="290"/>
+      <c r="D118" s="279"/>
       <c r="E118" s="157"/>
       <c r="F118" s="145"/>
       <c r="G118" s="146"/>
@@ -9400,9 +9394,9 @@
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="143"/>
-      <c r="B119" s="282"/>
+      <c r="B119" s="271"/>
       <c r="C119" s="138"/>
-      <c r="D119" s="290"/>
+      <c r="D119" s="279"/>
       <c r="E119" s="159"/>
       <c r="F119" s="151"/>
       <c r="G119" s="151"/>
@@ -9431,7 +9425,7 @@
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="143"/>
-      <c r="B120" s="282"/>
+      <c r="B120" s="271"/>
       <c r="C120" s="138"/>
       <c r="D120" s="8"/>
       <c r="E120" s="160"/>
@@ -9462,9 +9456,9 @@
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="143"/>
-      <c r="B121" s="282"/>
+      <c r="B121" s="271"/>
       <c r="C121" s="138"/>
-      <c r="D121" s="276"/>
+      <c r="D121" s="280"/>
       <c r="E121" s="159"/>
       <c r="F121" s="151"/>
       <c r="G121" s="151"/>
@@ -9493,9 +9487,9 @@
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
       <c r="A122" s="143"/>
-      <c r="B122" s="282"/>
+      <c r="B122" s="271"/>
       <c r="C122" s="138"/>
-      <c r="D122" s="276"/>
+      <c r="D122" s="280"/>
       <c r="E122" s="157"/>
       <c r="F122" s="151"/>
       <c r="G122" s="151"/>
@@ -9524,9 +9518,9 @@
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1">
       <c r="A123" s="143"/>
-      <c r="B123" s="282"/>
+      <c r="B123" s="271"/>
       <c r="C123" s="138"/>
-      <c r="D123" s="276"/>
+      <c r="D123" s="280"/>
       <c r="E123" s="159"/>
       <c r="F123" s="151"/>
       <c r="G123" s="151"/>
@@ -9555,9 +9549,9 @@
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1">
       <c r="A124" s="143"/>
-      <c r="B124" s="282"/>
+      <c r="B124" s="271"/>
       <c r="C124" s="138"/>
-      <c r="D124" s="276"/>
+      <c r="D124" s="280"/>
       <c r="E124" s="157"/>
       <c r="F124" s="145"/>
       <c r="G124" s="146"/>
@@ -9586,9 +9580,9 @@
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="143"/>
-      <c r="B125" s="282"/>
+      <c r="B125" s="271"/>
       <c r="C125" s="138"/>
-      <c r="D125" s="276"/>
+      <c r="D125" s="280"/>
       <c r="E125" s="161"/>
       <c r="F125" s="162"/>
       <c r="G125" s="153"/>
@@ -9617,9 +9611,9 @@
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="143"/>
-      <c r="B126" s="282"/>
+      <c r="B126" s="271"/>
       <c r="C126" s="138"/>
-      <c r="D126" s="276"/>
+      <c r="D126" s="280"/>
       <c r="E126" s="157"/>
       <c r="F126" s="163"/>
       <c r="G126" s="146"/>
@@ -9648,9 +9642,9 @@
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
       <c r="A127" s="143"/>
-      <c r="B127" s="282"/>
+      <c r="B127" s="271"/>
       <c r="C127" s="138"/>
-      <c r="D127" s="276"/>
+      <c r="D127" s="280"/>
       <c r="E127" s="161"/>
       <c r="F127" s="164"/>
       <c r="G127" s="153"/>
@@ -9679,7 +9673,7 @@
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
       <c r="A128" s="143"/>
-      <c r="B128" s="282"/>
+      <c r="B128" s="271"/>
       <c r="C128" s="138"/>
       <c r="D128" s="165"/>
       <c r="E128" s="161"/>
@@ -9710,9 +9704,9 @@
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1">
       <c r="A129" s="143"/>
-      <c r="B129" s="282"/>
+      <c r="B129" s="271"/>
       <c r="C129" s="138"/>
-      <c r="D129" s="277"/>
+      <c r="D129" s="281"/>
       <c r="E129" s="166"/>
       <c r="F129" s="167"/>
       <c r="G129" s="153"/>
@@ -9741,9 +9735,9 @@
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1">
       <c r="A130" s="143"/>
-      <c r="B130" s="282"/>
+      <c r="B130" s="271"/>
       <c r="C130" s="138"/>
-      <c r="D130" s="277"/>
+      <c r="D130" s="281"/>
       <c r="E130" s="161"/>
       <c r="F130" s="167"/>
       <c r="G130" s="153"/>
@@ -9772,9 +9766,9 @@
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1">
       <c r="A131" s="143"/>
-      <c r="B131" s="282"/>
+      <c r="B131" s="271"/>
       <c r="C131" s="138"/>
-      <c r="D131" s="277"/>
+      <c r="D131" s="281"/>
       <c r="E131" s="168"/>
       <c r="F131" s="158"/>
       <c r="G131" s="158"/>
@@ -9803,9 +9797,9 @@
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1">
       <c r="A132" s="143"/>
-      <c r="B132" s="282"/>
+      <c r="B132" s="271"/>
       <c r="C132" s="138"/>
-      <c r="D132" s="277"/>
+      <c r="D132" s="281"/>
       <c r="E132" s="168"/>
       <c r="F132" s="158"/>
       <c r="G132" s="158"/>
@@ -9834,9 +9828,9 @@
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1">
       <c r="A133" s="143"/>
-      <c r="B133" s="282"/>
+      <c r="B133" s="271"/>
       <c r="C133" s="138"/>
-      <c r="D133" s="277"/>
+      <c r="D133" s="281"/>
       <c r="E133" s="168"/>
       <c r="F133" s="158"/>
       <c r="G133" s="158"/>
@@ -9865,9 +9859,9 @@
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1">
       <c r="A134" s="143"/>
-      <c r="B134" s="282"/>
+      <c r="B134" s="271"/>
       <c r="C134" s="138"/>
-      <c r="D134" s="277"/>
+      <c r="D134" s="281"/>
       <c r="E134" s="168"/>
       <c r="F134" s="158"/>
       <c r="G134" s="158"/>
@@ -9896,9 +9890,9 @@
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1">
       <c r="A135" s="143"/>
-      <c r="B135" s="282"/>
+      <c r="B135" s="271"/>
       <c r="C135" s="138"/>
-      <c r="D135" s="277"/>
+      <c r="D135" s="281"/>
       <c r="E135" s="168"/>
       <c r="F135" s="158"/>
       <c r="G135" s="158"/>
@@ -9927,9 +9921,9 @@
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1">
       <c r="A136" s="143"/>
-      <c r="B136" s="282"/>
+      <c r="B136" s="271"/>
       <c r="C136" s="138"/>
-      <c r="D136" s="277"/>
+      <c r="D136" s="281"/>
       <c r="E136" s="168"/>
       <c r="F136" s="158"/>
       <c r="G136" s="158"/>
@@ -9958,9 +9952,9 @@
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1">
       <c r="A137" s="143"/>
-      <c r="B137" s="282"/>
+      <c r="B137" s="271"/>
       <c r="C137" s="138"/>
-      <c r="D137" s="277"/>
+      <c r="D137" s="281"/>
       <c r="E137" s="168"/>
       <c r="F137" s="158"/>
       <c r="G137" s="158"/>
@@ -9989,7 +9983,7 @@
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1">
       <c r="A138" s="143"/>
-      <c r="B138" s="282"/>
+      <c r="B138" s="271"/>
       <c r="C138" s="169"/>
       <c r="D138" s="170"/>
       <c r="E138" s="168"/>
@@ -10020,7 +10014,7 @@
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1">
       <c r="A139" s="143"/>
-      <c r="B139" s="282"/>
+      <c r="B139" s="271"/>
       <c r="C139" s="171"/>
       <c r="D139" s="170"/>
       <c r="E139" s="168"/>
@@ -10051,7 +10045,7 @@
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1">
       <c r="A140" s="143"/>
-      <c r="B140" s="282"/>
+      <c r="B140" s="271"/>
       <c r="C140" s="171"/>
       <c r="D140" s="172"/>
       <c r="E140" s="168"/>
@@ -10082,9 +10076,9 @@
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1">
       <c r="A141" s="143"/>
-      <c r="B141" s="282"/>
+      <c r="B141" s="271"/>
       <c r="C141" s="171"/>
-      <c r="D141" s="278"/>
+      <c r="D141" s="282"/>
       <c r="E141" s="173"/>
       <c r="F141" s="158"/>
       <c r="G141" s="158"/>
@@ -10113,9 +10107,9 @@
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1">
       <c r="A142" s="143"/>
-      <c r="B142" s="282"/>
+      <c r="B142" s="271"/>
       <c r="C142" s="171"/>
-      <c r="D142" s="278"/>
+      <c r="D142" s="282"/>
       <c r="E142" s="173"/>
       <c r="F142" s="158"/>
       <c r="G142" s="158"/>
@@ -10144,7 +10138,7 @@
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1">
       <c r="A143" s="143"/>
-      <c r="B143" s="282"/>
+      <c r="B143" s="271"/>
       <c r="C143" s="171"/>
       <c r="D143" s="174"/>
       <c r="E143" s="168"/>
@@ -10175,7 +10169,7 @@
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
       <c r="A144" s="143"/>
-      <c r="B144" s="282"/>
+      <c r="B144" s="271"/>
       <c r="C144" s="171"/>
       <c r="D144" s="175"/>
       <c r="E144" s="168"/>
@@ -10206,7 +10200,7 @@
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
       <c r="A145" s="143"/>
-      <c r="B145" s="282"/>
+      <c r="B145" s="271"/>
       <c r="C145" s="171"/>
       <c r="D145" s="175"/>
       <c r="E145" s="176"/>
@@ -10237,7 +10231,7 @@
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
       <c r="A146" s="143"/>
-      <c r="B146" s="282"/>
+      <c r="B146" s="271"/>
       <c r="C146" s="171"/>
       <c r="D146" s="175"/>
       <c r="E146" s="168"/>
@@ -10268,7 +10262,7 @@
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
       <c r="A147" s="143"/>
-      <c r="B147" s="282"/>
+      <c r="B147" s="271"/>
       <c r="C147" s="171"/>
       <c r="D147" s="175"/>
       <c r="E147" s="168"/>
@@ -10299,7 +10293,7 @@
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1">
       <c r="A148" s="143"/>
-      <c r="B148" s="282"/>
+      <c r="B148" s="271"/>
       <c r="C148" s="171"/>
       <c r="D148" s="175"/>
       <c r="E148" s="168"/>
@@ -10330,7 +10324,7 @@
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
       <c r="A149" s="143"/>
-      <c r="B149" s="282"/>
+      <c r="B149" s="271"/>
       <c r="C149" s="171"/>
       <c r="D149" s="175"/>
       <c r="E149" s="168"/>
@@ -10361,7 +10355,7 @@
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
       <c r="A150" s="143"/>
-      <c r="B150" s="282"/>
+      <c r="B150" s="271"/>
       <c r="C150" s="171"/>
       <c r="D150" s="175"/>
       <c r="E150" s="176"/>
@@ -10392,7 +10386,7 @@
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
       <c r="A151" s="143"/>
-      <c r="B151" s="282"/>
+      <c r="B151" s="271"/>
       <c r="C151" s="171"/>
       <c r="D151" s="175"/>
       <c r="E151" s="176"/>
@@ -10423,7 +10417,7 @@
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1">
       <c r="A152" s="143"/>
-      <c r="B152" s="282"/>
+      <c r="B152" s="271"/>
       <c r="C152" s="171"/>
       <c r="D152" s="175"/>
       <c r="E152" s="176"/>
@@ -10454,7 +10448,7 @@
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
       <c r="A153" s="143"/>
-      <c r="B153" s="282"/>
+      <c r="B153" s="271"/>
       <c r="C153" s="171"/>
       <c r="D153" s="175"/>
       <c r="E153" s="168"/>
@@ -10485,7 +10479,7 @@
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1">
       <c r="A154" s="143"/>
-      <c r="B154" s="282"/>
+      <c r="B154" s="271"/>
       <c r="C154" s="171"/>
       <c r="D154" s="175"/>
       <c r="E154" s="168"/>
@@ -10516,7 +10510,7 @@
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
       <c r="A155" s="143"/>
-      <c r="B155" s="282"/>
+      <c r="B155" s="271"/>
       <c r="C155" s="171"/>
       <c r="D155" s="175"/>
       <c r="E155" s="168"/>
@@ -10547,7 +10541,7 @@
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1">
       <c r="A156" s="143"/>
-      <c r="B156" s="282"/>
+      <c r="B156" s="271"/>
       <c r="C156" s="171"/>
       <c r="D156" s="175"/>
       <c r="E156" s="168"/>
@@ -10578,7 +10572,7 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="143"/>
-      <c r="B157" s="282"/>
+      <c r="B157" s="271"/>
       <c r="C157" s="171"/>
       <c r="D157" s="175"/>
       <c r="E157" s="168"/>
@@ -10609,7 +10603,7 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="143"/>
-      <c r="B158" s="282"/>
+      <c r="B158" s="271"/>
       <c r="C158" s="171"/>
       <c r="D158" s="175"/>
       <c r="E158" s="168"/>
@@ -10640,7 +10634,7 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="282"/>
+      <c r="B159" s="271"/>
       <c r="C159" s="171"/>
       <c r="D159" s="182"/>
       <c r="E159" s="183"/>
@@ -10671,7 +10665,7 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
       <c r="A160" s="181"/>
-      <c r="B160" s="282"/>
+      <c r="B160" s="271"/>
       <c r="C160" s="171"/>
       <c r="D160" s="184"/>
       <c r="E160" s="168"/>
@@ -10702,7 +10696,7 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="282"/>
+      <c r="B161" s="271"/>
       <c r="C161" s="171"/>
       <c r="D161" s="184"/>
       <c r="E161" s="168"/>
@@ -10733,7 +10727,7 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1">
       <c r="A162" s="181"/>
-      <c r="B162" s="282"/>
+      <c r="B162" s="271"/>
       <c r="C162" s="171"/>
       <c r="D162" s="184"/>
       <c r="E162" s="185"/>
@@ -10764,7 +10758,7 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="282"/>
+      <c r="B163" s="271"/>
       <c r="C163" s="171"/>
       <c r="D163" s="184"/>
       <c r="E163" s="186"/>
@@ -10795,7 +10789,7 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1">
       <c r="A164" s="181"/>
-      <c r="B164" s="282"/>
+      <c r="B164" s="271"/>
       <c r="C164" s="171"/>
       <c r="D164" s="184"/>
       <c r="E164" s="186"/>
@@ -10826,7 +10820,7 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="282"/>
+      <c r="B165" s="271"/>
       <c r="C165" s="171"/>
       <c r="D165" s="184"/>
       <c r="E165" s="186"/>
@@ -10857,7 +10851,7 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="282"/>
+      <c r="B166" s="271"/>
       <c r="C166" s="171"/>
       <c r="D166" s="184"/>
       <c r="E166" s="186"/>
@@ -10888,7 +10882,7 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1">
       <c r="A167" s="181"/>
-      <c r="B167" s="282"/>
+      <c r="B167" s="271"/>
       <c r="C167" s="171"/>
       <c r="D167" s="184"/>
       <c r="E167" s="168"/>
@@ -10919,7 +10913,7 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="282"/>
+      <c r="B168" s="271"/>
       <c r="C168" s="171"/>
       <c r="D168" s="184"/>
       <c r="E168" s="168"/>
@@ -10950,7 +10944,7 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="282"/>
+      <c r="B169" s="271"/>
       <c r="C169" s="171"/>
       <c r="D169" s="184"/>
       <c r="E169" s="168"/>
@@ -10981,7 +10975,7 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="282"/>
+      <c r="B170" s="271"/>
       <c r="C170" s="171"/>
       <c r="D170" s="184"/>
       <c r="E170" s="168"/>
@@ -11012,7 +11006,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="282"/>
+      <c r="B171" s="271"/>
       <c r="C171" s="171"/>
       <c r="D171" s="184"/>
       <c r="E171" s="183"/>
@@ -11043,7 +11037,7 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="282"/>
+      <c r="B172" s="271"/>
       <c r="C172" s="171"/>
       <c r="D172" s="187"/>
       <c r="E172" s="188"/>
@@ -11074,7 +11068,7 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="282"/>
+      <c r="B173" s="271"/>
       <c r="C173" s="171"/>
       <c r="D173" s="189"/>
       <c r="E173" s="183"/>
@@ -11105,9 +11099,9 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="282"/>
+      <c r="B174" s="271"/>
       <c r="C174" s="171"/>
-      <c r="D174" s="279"/>
+      <c r="D174" s="283"/>
       <c r="E174" s="168"/>
       <c r="F174" s="158"/>
       <c r="G174" s="158"/>
@@ -11116,7 +11110,7 @@
       <c r="J174" s="158"/>
       <c r="K174" s="158"/>
       <c r="L174" s="149"/>
-      <c r="M174" s="274"/>
+      <c r="M174" s="284"/>
       <c r="N174" s="142"/>
       <c r="O174" s="142"/>
       <c r="P174" s="142"/>
@@ -11136,9 +11130,9 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1">
       <c r="A175" s="143"/>
-      <c r="B175" s="282"/>
+      <c r="B175" s="271"/>
       <c r="C175" s="171"/>
-      <c r="D175" s="279"/>
+      <c r="D175" s="283"/>
       <c r="E175" s="168"/>
       <c r="F175" s="158"/>
       <c r="G175" s="158"/>
@@ -11147,7 +11141,7 @@
       <c r="J175" s="158"/>
       <c r="K175" s="158"/>
       <c r="L175" s="149"/>
-      <c r="M175" s="274"/>
+      <c r="M175" s="284"/>
       <c r="N175" s="142"/>
       <c r="O175" s="142"/>
       <c r="P175" s="142"/>
@@ -11167,9 +11161,9 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1">
       <c r="A176" s="143"/>
-      <c r="B176" s="282"/>
+      <c r="B176" s="271"/>
       <c r="C176" s="171"/>
-      <c r="D176" s="279"/>
+      <c r="D176" s="283"/>
       <c r="E176" s="185"/>
       <c r="F176" s="158"/>
       <c r="G176" s="158"/>
@@ -11178,7 +11172,7 @@
       <c r="J176" s="158"/>
       <c r="K176" s="158"/>
       <c r="L176" s="149"/>
-      <c r="M176" s="274"/>
+      <c r="M176" s="284"/>
       <c r="N176" s="142"/>
       <c r="O176" s="142"/>
       <c r="P176" s="142"/>
@@ -11198,9 +11192,9 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1">
       <c r="A177" s="143"/>
-      <c r="B177" s="282"/>
+      <c r="B177" s="271"/>
       <c r="C177" s="171"/>
-      <c r="D177" s="279"/>
+      <c r="D177" s="283"/>
       <c r="E177" s="186"/>
       <c r="F177" s="158"/>
       <c r="G177" s="158"/>
@@ -11209,7 +11203,7 @@
       <c r="J177" s="158"/>
       <c r="K177" s="158"/>
       <c r="L177" s="149"/>
-      <c r="M177" s="274"/>
+      <c r="M177" s="284"/>
       <c r="N177" s="142"/>
       <c r="O177" s="142"/>
       <c r="P177" s="142"/>
@@ -11229,9 +11223,9 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1">
       <c r="A178" s="143"/>
-      <c r="B178" s="282"/>
+      <c r="B178" s="271"/>
       <c r="C178" s="171"/>
-      <c r="D178" s="279"/>
+      <c r="D178" s="283"/>
       <c r="E178" s="186"/>
       <c r="F178" s="158"/>
       <c r="G178" s="158"/>
@@ -11240,7 +11234,7 @@
       <c r="J178" s="158"/>
       <c r="K178" s="158"/>
       <c r="L178" s="149"/>
-      <c r="M178" s="274"/>
+      <c r="M178" s="284"/>
       <c r="N178" s="142"/>
       <c r="O178" s="142"/>
       <c r="P178" s="142"/>
@@ -11260,9 +11254,9 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1">
       <c r="A179" s="143"/>
-      <c r="B179" s="282"/>
+      <c r="B179" s="271"/>
       <c r="C179" s="171"/>
-      <c r="D179" s="279"/>
+      <c r="D179" s="283"/>
       <c r="E179" s="186"/>
       <c r="F179" s="158"/>
       <c r="G179" s="158"/>
@@ -11271,7 +11265,7 @@
       <c r="J179" s="158"/>
       <c r="K179" s="158"/>
       <c r="L179" s="149"/>
-      <c r="M179" s="274"/>
+      <c r="M179" s="284"/>
       <c r="N179" s="142"/>
       <c r="O179" s="142"/>
       <c r="P179" s="142"/>
@@ -11291,9 +11285,9 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1">
       <c r="A180" s="143"/>
-      <c r="B180" s="282"/>
+      <c r="B180" s="271"/>
       <c r="C180" s="171"/>
-      <c r="D180" s="279"/>
+      <c r="D180" s="283"/>
       <c r="E180" s="186"/>
       <c r="F180" s="158"/>
       <c r="G180" s="158"/>
@@ -11302,7 +11296,7 @@
       <c r="J180" s="158"/>
       <c r="K180" s="158"/>
       <c r="L180" s="149"/>
-      <c r="M180" s="274"/>
+      <c r="M180" s="284"/>
       <c r="N180" s="142"/>
       <c r="O180" s="142"/>
       <c r="P180" s="142"/>
@@ -11322,9 +11316,9 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1">
       <c r="A181" s="143"/>
-      <c r="B181" s="282"/>
+      <c r="B181" s="271"/>
       <c r="C181" s="171"/>
-      <c r="D181" s="279"/>
+      <c r="D181" s="283"/>
       <c r="E181" s="168"/>
       <c r="F181" s="158"/>
       <c r="G181" s="158"/>
@@ -11333,7 +11327,7 @@
       <c r="J181" s="158"/>
       <c r="K181" s="158"/>
       <c r="L181" s="149"/>
-      <c r="M181" s="274"/>
+      <c r="M181" s="284"/>
       <c r="N181" s="142"/>
       <c r="O181" s="142"/>
       <c r="P181" s="142"/>
@@ -11353,9 +11347,9 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1">
       <c r="A182" s="143"/>
-      <c r="B182" s="282"/>
+      <c r="B182" s="271"/>
       <c r="C182" s="171"/>
-      <c r="D182" s="279"/>
+      <c r="D182" s="283"/>
       <c r="E182" s="168"/>
       <c r="F182" s="158"/>
       <c r="G182" s="158"/>
@@ -11384,9 +11378,9 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1">
       <c r="A183" s="143"/>
-      <c r="B183" s="282"/>
+      <c r="B183" s="271"/>
       <c r="C183" s="171"/>
-      <c r="D183" s="279"/>
+      <c r="D183" s="283"/>
       <c r="E183" s="168"/>
       <c r="F183" s="158"/>
       <c r="G183" s="158"/>
@@ -11415,9 +11409,9 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1">
       <c r="A184" s="143"/>
-      <c r="B184" s="282"/>
+      <c r="B184" s="271"/>
       <c r="C184" s="171"/>
-      <c r="D184" s="279"/>
+      <c r="D184" s="283"/>
       <c r="E184" s="168"/>
       <c r="F184" s="158"/>
       <c r="G184" s="158"/>
@@ -11479,9 +11473,9 @@
       <c r="A186" s="190"/>
       <c r="B186" s="193"/>
       <c r="C186" s="192" t="s">
-        <v>305</v>
-      </c>
-      <c r="D186" s="273"/>
+        <v>304</v>
+      </c>
+      <c r="D186" s="285"/>
       <c r="E186" s="168"/>
       <c r="F186" s="158"/>
       <c r="G186" s="180"/>
@@ -11512,7 +11506,7 @@
       <c r="A187" s="190"/>
       <c r="B187" s="189"/>
       <c r="C187" s="194"/>
-      <c r="D187" s="273"/>
+      <c r="D187" s="285"/>
       <c r="E187" s="168"/>
       <c r="F187" s="158"/>
       <c r="G187" s="180"/>
@@ -11543,7 +11537,7 @@
       <c r="A188" s="190"/>
       <c r="B188" s="189"/>
       <c r="C188" s="194"/>
-      <c r="D188" s="273"/>
+      <c r="D188" s="285"/>
       <c r="E188" s="168"/>
       <c r="F188" s="158"/>
       <c r="G188" s="180"/>
@@ -11574,7 +11568,7 @@
       <c r="A189" s="190"/>
       <c r="B189" s="189"/>
       <c r="C189" s="189"/>
-      <c r="D189" s="273"/>
+      <c r="D189" s="285"/>
       <c r="E189" s="176"/>
       <c r="F189" s="158"/>
       <c r="G189" s="180"/>
@@ -11605,7 +11599,7 @@
       <c r="A190" s="190"/>
       <c r="B190" s="193"/>
       <c r="C190" s="189"/>
-      <c r="D190" s="273"/>
+      <c r="D190" s="285"/>
       <c r="E190" s="176"/>
       <c r="F190" s="158"/>
       <c r="G190" s="180"/>
@@ -11636,7 +11630,7 @@
       <c r="A191" s="190"/>
       <c r="B191" s="193"/>
       <c r="C191" s="189"/>
-      <c r="D191" s="273"/>
+      <c r="D191" s="285"/>
       <c r="E191" s="176"/>
       <c r="F191" s="158"/>
       <c r="G191" s="180"/>
@@ -11667,7 +11661,7 @@
       <c r="A192" s="190"/>
       <c r="B192" s="193"/>
       <c r="C192" s="189"/>
-      <c r="D192" s="273"/>
+      <c r="D192" s="285"/>
       <c r="E192" s="168"/>
       <c r="F192" s="158"/>
       <c r="G192" s="180"/>
@@ -11698,7 +11692,7 @@
       <c r="A193" s="190"/>
       <c r="B193" s="193"/>
       <c r="C193" s="189"/>
-      <c r="D193" s="273"/>
+      <c r="D193" s="285"/>
       <c r="E193" s="168"/>
       <c r="F193" s="158"/>
       <c r="G193" s="180"/>
@@ -11729,7 +11723,7 @@
       <c r="A194" s="190"/>
       <c r="B194" s="193"/>
       <c r="C194" s="193"/>
-      <c r="D194" s="273"/>
+      <c r="D194" s="285"/>
       <c r="E194" s="168"/>
       <c r="F194" s="158"/>
       <c r="G194" s="180"/>
@@ -13069,8 +13063,8 @@
       <c r="H237" s="214"/>
       <c r="I237" s="214"/>
       <c r="J237" s="214"/>
-      <c r="K237" s="272"/>
-      <c r="L237" s="274"/>
+      <c r="K237" s="286"/>
+      <c r="L237" s="284"/>
       <c r="M237" s="209"/>
       <c r="N237" s="142"/>
       <c r="O237" s="142"/>
@@ -13100,8 +13094,8 @@
       <c r="H238" s="215"/>
       <c r="I238" s="215"/>
       <c r="J238" s="215"/>
-      <c r="K238" s="272"/>
-      <c r="L238" s="274"/>
+      <c r="K238" s="286"/>
+      <c r="L238" s="284"/>
       <c r="M238" s="209"/>
       <c r="N238" s="142"/>
       <c r="O238" s="142"/>
@@ -13131,8 +13125,8 @@
       <c r="H239" s="140"/>
       <c r="I239" s="140"/>
       <c r="J239" s="140"/>
-      <c r="K239" s="272"/>
-      <c r="L239" s="274"/>
+      <c r="K239" s="286"/>
+      <c r="L239" s="284"/>
       <c r="M239" s="209"/>
       <c r="N239" s="142"/>
       <c r="O239" s="142"/>
@@ -13340,9 +13334,9 @@
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
       <c r="A246" s="190"/>
       <c r="B246" s="201"/>
-      <c r="C246" s="267"/>
+      <c r="C246" s="287"/>
       <c r="D246" s="189"/>
-      <c r="E246" s="275"/>
+      <c r="E246" s="288"/>
       <c r="F246" s="151"/>
       <c r="G246" s="151"/>
       <c r="H246" s="151"/>
@@ -13371,9 +13365,9 @@
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
       <c r="A247" s="190"/>
       <c r="B247" s="201"/>
-      <c r="C247" s="267"/>
+      <c r="C247" s="287"/>
       <c r="D247" s="189"/>
-      <c r="E247" s="275"/>
+      <c r="E247" s="288"/>
       <c r="F247" s="151"/>
       <c r="G247" s="151"/>
       <c r="H247" s="151"/>
@@ -13402,9 +13396,9 @@
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
       <c r="A248" s="190"/>
       <c r="B248" s="201"/>
-      <c r="C248" s="267"/>
+      <c r="C248" s="287"/>
       <c r="D248" s="189"/>
-      <c r="E248" s="275"/>
+      <c r="E248" s="288"/>
       <c r="F248" s="151"/>
       <c r="G248" s="151"/>
       <c r="H248" s="151"/>
@@ -13433,7 +13427,7 @@
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
       <c r="A249" s="190"/>
       <c r="B249" s="201"/>
-      <c r="C249" s="267"/>
+      <c r="C249" s="287"/>
       <c r="D249" s="189"/>
       <c r="E249" s="159"/>
       <c r="F249" s="151"/>
@@ -13464,7 +13458,7 @@
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
       <c r="A250" s="190"/>
       <c r="B250" s="201"/>
-      <c r="C250" s="267"/>
+      <c r="C250" s="287"/>
       <c r="D250" s="189"/>
       <c r="E250" s="159"/>
       <c r="F250" s="151"/>
@@ -13495,7 +13489,7 @@
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
       <c r="A251" s="190"/>
       <c r="B251" s="201"/>
-      <c r="C251" s="267"/>
+      <c r="C251" s="287"/>
       <c r="D251" s="189"/>
       <c r="E251" s="159"/>
       <c r="F251" s="212"/>
@@ -13526,7 +13520,7 @@
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
       <c r="A252" s="190"/>
       <c r="B252" s="201"/>
-      <c r="C252" s="267"/>
+      <c r="C252" s="287"/>
       <c r="D252" s="189"/>
       <c r="E252" s="159"/>
       <c r="F252" s="151"/>
@@ -13557,7 +13551,7 @@
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
       <c r="A253" s="190"/>
       <c r="B253" s="201"/>
-      <c r="C253" s="268"/>
+      <c r="C253" s="289"/>
       <c r="D253" s="199"/>
       <c r="E253" s="159"/>
       <c r="F253" s="212"/>
@@ -13588,7 +13582,7 @@
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
       <c r="A254" s="190"/>
       <c r="B254" s="201"/>
-      <c r="C254" s="268"/>
+      <c r="C254" s="289"/>
       <c r="D254" s="220"/>
       <c r="E254" s="159"/>
       <c r="F254" s="212"/>
@@ -13650,7 +13644,7 @@
     <row r="256" spans="1:29" ht="30" customHeight="1">
       <c r="A256" s="190"/>
       <c r="B256" s="201"/>
-      <c r="C256" s="268"/>
+      <c r="C256" s="289"/>
       <c r="D256" s="199"/>
       <c r="E256" s="159"/>
       <c r="F256" s="151"/>
@@ -13681,7 +13675,7 @@
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
       <c r="A257" s="190"/>
       <c r="B257" s="201"/>
-      <c r="C257" s="268"/>
+      <c r="C257" s="289"/>
       <c r="D257" s="200"/>
       <c r="E257" s="159"/>
       <c r="F257" s="151"/>
@@ -13712,7 +13706,7 @@
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
       <c r="A258" s="190"/>
       <c r="B258" s="201"/>
-      <c r="C258" s="268"/>
+      <c r="C258" s="289"/>
       <c r="D258" s="200"/>
       <c r="E258" s="159"/>
       <c r="F258" s="151"/>
@@ -13743,7 +13737,7 @@
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
       <c r="A259" s="190"/>
       <c r="B259" s="201"/>
-      <c r="C259" s="268"/>
+      <c r="C259" s="289"/>
       <c r="D259" s="200"/>
       <c r="E259" s="159"/>
       <c r="F259" s="212"/>
@@ -13774,7 +13768,7 @@
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
       <c r="A260" s="190"/>
       <c r="B260" s="201"/>
-      <c r="C260" s="268"/>
+      <c r="C260" s="289"/>
       <c r="D260" s="200"/>
       <c r="E260" s="222"/>
       <c r="F260" s="151"/>
@@ -14154,7 +14148,7 @@
       <c r="H272" s="212"/>
       <c r="I272" s="212"/>
       <c r="J272" s="212"/>
-      <c r="K272" s="271"/>
+      <c r="K272" s="290"/>
       <c r="L272" s="149"/>
       <c r="M272" s="178"/>
       <c r="N272" s="142"/>
@@ -14185,7 +14179,7 @@
       <c r="H273" s="212"/>
       <c r="I273" s="212"/>
       <c r="J273" s="212"/>
-      <c r="K273" s="271"/>
+      <c r="K273" s="290"/>
       <c r="L273" s="149"/>
       <c r="M273" s="178"/>
       <c r="N273" s="142"/>
@@ -14270,7 +14264,7 @@
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="190"/>
       <c r="B276" s="201"/>
-      <c r="C276" s="268"/>
+      <c r="C276" s="289"/>
       <c r="D276" s="199"/>
       <c r="E276" s="159"/>
       <c r="F276" s="212"/>
@@ -14278,7 +14272,7 @@
       <c r="H276" s="212"/>
       <c r="I276" s="212"/>
       <c r="J276" s="212"/>
-      <c r="K276" s="272"/>
+      <c r="K276" s="286"/>
       <c r="L276" s="149"/>
       <c r="M276" s="178"/>
       <c r="N276" s="142"/>
@@ -14301,7 +14295,7 @@
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="190"/>
       <c r="B277" s="201"/>
-      <c r="C277" s="268"/>
+      <c r="C277" s="289"/>
       <c r="D277" s="220"/>
       <c r="E277" s="159"/>
       <c r="F277" s="212"/>
@@ -14309,7 +14303,7 @@
       <c r="H277" s="212"/>
       <c r="I277" s="212"/>
       <c r="J277" s="212"/>
-      <c r="K277" s="272"/>
+      <c r="K277" s="286"/>
       <c r="L277" s="149"/>
       <c r="M277" s="178"/>
       <c r="N277" s="142"/>
@@ -14332,7 +14326,7 @@
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="190"/>
       <c r="B278" s="201"/>
-      <c r="C278" s="267"/>
+      <c r="C278" s="287"/>
       <c r="D278" s="213"/>
       <c r="E278" s="176"/>
       <c r="F278" s="158"/>
@@ -14363,7 +14357,7 @@
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="190"/>
       <c r="B279" s="201"/>
-      <c r="C279" s="267"/>
+      <c r="C279" s="287"/>
       <c r="D279" s="174"/>
       <c r="E279" s="176"/>
       <c r="F279" s="158"/>
@@ -14425,7 +14419,7 @@
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="190"/>
       <c r="B281" s="201"/>
-      <c r="C281" s="268"/>
+      <c r="C281" s="289"/>
       <c r="D281" s="199"/>
       <c r="E281" s="176"/>
       <c r="F281" s="158"/>
@@ -14456,7 +14450,7 @@
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="190"/>
       <c r="B282" s="201"/>
-      <c r="C282" s="268"/>
+      <c r="C282" s="289"/>
       <c r="D282" s="200"/>
       <c r="E282" s="176"/>
       <c r="F282" s="158"/>
@@ -14487,7 +14481,7 @@
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="190"/>
       <c r="B283" s="201"/>
-      <c r="C283" s="268"/>
+      <c r="C283" s="289"/>
       <c r="D283" s="220"/>
       <c r="E283" s="176"/>
       <c r="F283" s="158"/>
@@ -14672,10 +14666,10 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="196"/>
-      <c r="B289" s="269"/>
-      <c r="C289" s="267"/>
+      <c r="B289" s="291"/>
+      <c r="C289" s="287"/>
       <c r="D289" s="189"/>
-      <c r="E289" s="267"/>
+      <c r="E289" s="287"/>
       <c r="F289" s="151"/>
       <c r="G289" s="151"/>
       <c r="H289" s="151"/>
@@ -14703,10 +14697,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="196"/>
-      <c r="B290" s="269"/>
-      <c r="C290" s="269"/>
+      <c r="B290" s="291"/>
+      <c r="C290" s="291"/>
       <c r="D290" s="189"/>
-      <c r="E290" s="267"/>
+      <c r="E290" s="287"/>
       <c r="F290" s="151"/>
       <c r="G290" s="151"/>
       <c r="H290" s="151"/>
@@ -14734,10 +14728,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="196"/>
-      <c r="B291" s="269"/>
-      <c r="C291" s="269"/>
+      <c r="B291" s="291"/>
+      <c r="C291" s="291"/>
       <c r="D291" s="189"/>
-      <c r="E291" s="267"/>
+      <c r="E291" s="287"/>
       <c r="F291" s="151"/>
       <c r="G291" s="151"/>
       <c r="H291" s="151"/>
@@ -14765,10 +14759,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="196"/>
-      <c r="B292" s="269"/>
-      <c r="C292" s="269"/>
+      <c r="B292" s="291"/>
+      <c r="C292" s="291"/>
       <c r="D292" s="189"/>
-      <c r="E292" s="267"/>
+      <c r="E292" s="287"/>
       <c r="F292" s="151"/>
       <c r="G292" s="151"/>
       <c r="H292" s="151"/>
@@ -14796,10 +14790,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="196"/>
-      <c r="B293" s="269"/>
-      <c r="C293" s="269"/>
+      <c r="B293" s="291"/>
+      <c r="C293" s="291"/>
       <c r="D293" s="189"/>
-      <c r="E293" s="267"/>
+      <c r="E293" s="287"/>
       <c r="F293" s="151"/>
       <c r="G293" s="151"/>
       <c r="H293" s="151"/>
@@ -14827,10 +14821,10 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="196"/>
-      <c r="B294" s="269"/>
-      <c r="C294" s="269"/>
+      <c r="B294" s="291"/>
+      <c r="C294" s="291"/>
       <c r="D294" s="189"/>
-      <c r="E294" s="267"/>
+      <c r="E294" s="287"/>
       <c r="F294" s="212"/>
       <c r="G294" s="212"/>
       <c r="H294" s="212"/>
@@ -14858,10 +14852,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="196"/>
-      <c r="B295" s="269"/>
-      <c r="C295" s="269"/>
+      <c r="B295" s="291"/>
+      <c r="C295" s="291"/>
       <c r="D295" s="189"/>
-      <c r="E295" s="267"/>
+      <c r="E295" s="287"/>
       <c r="F295" s="151"/>
       <c r="G295" s="151"/>
       <c r="H295" s="151"/>
@@ -14889,10 +14883,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="196"/>
-      <c r="B296" s="269"/>
-      <c r="C296" s="269"/>
+      <c r="B296" s="291"/>
+      <c r="C296" s="291"/>
       <c r="D296" s="189"/>
-      <c r="E296" s="267"/>
+      <c r="E296" s="287"/>
       <c r="F296" s="151"/>
       <c r="G296" s="151"/>
       <c r="H296" s="151"/>
@@ -14920,8 +14914,8 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="196"/>
-      <c r="B297" s="269"/>
-      <c r="C297" s="269"/>
+      <c r="B297" s="291"/>
+      <c r="C297" s="291"/>
       <c r="D297" s="189"/>
       <c r="E297" s="193"/>
       <c r="F297" s="148"/>
@@ -14951,8 +14945,8 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="196"/>
-      <c r="B298" s="269"/>
-      <c r="C298" s="269"/>
+      <c r="B298" s="291"/>
+      <c r="C298" s="291"/>
       <c r="D298" s="189"/>
       <c r="E298" s="193"/>
       <c r="F298" s="149"/>
@@ -14982,10 +14976,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="196"/>
-      <c r="B299" s="269"/>
-      <c r="C299" s="269"/>
+      <c r="B299" s="291"/>
+      <c r="C299" s="291"/>
       <c r="D299" s="213"/>
-      <c r="E299" s="267"/>
+      <c r="E299" s="287"/>
       <c r="F299" s="158"/>
       <c r="G299" s="158"/>
       <c r="H299" s="158"/>
@@ -15013,10 +15007,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="196"/>
-      <c r="B300" s="269"/>
-      <c r="C300" s="269"/>
+      <c r="B300" s="291"/>
+      <c r="C300" s="291"/>
       <c r="D300" s="234"/>
-      <c r="E300" s="267"/>
+      <c r="E300" s="287"/>
       <c r="F300" s="149"/>
       <c r="G300" s="149"/>
       <c r="H300" s="149"/>
@@ -15044,10 +15038,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="196"/>
-      <c r="B301" s="269"/>
-      <c r="C301" s="269"/>
+      <c r="B301" s="291"/>
+      <c r="C301" s="291"/>
       <c r="D301" s="234"/>
-      <c r="E301" s="267"/>
+      <c r="E301" s="287"/>
       <c r="F301" s="149"/>
       <c r="G301" s="149"/>
       <c r="H301" s="149"/>
@@ -15075,10 +15069,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="196"/>
-      <c r="B302" s="269"/>
-      <c r="C302" s="267"/>
+      <c r="B302" s="291"/>
+      <c r="C302" s="287"/>
       <c r="D302" s="174"/>
-      <c r="E302" s="267"/>
+      <c r="E302" s="287"/>
       <c r="F302" s="149"/>
       <c r="G302" s="149"/>
       <c r="H302" s="149"/>
@@ -15106,7 +15100,7 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1">
       <c r="A303" s="196"/>
-      <c r="B303" s="269"/>
+      <c r="B303" s="291"/>
       <c r="C303" s="189"/>
       <c r="D303" s="234"/>
       <c r="E303" s="234"/>
@@ -15137,10 +15131,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="196"/>
-      <c r="B304" s="269"/>
-      <c r="C304" s="267"/>
+      <c r="B304" s="291"/>
+      <c r="C304" s="287"/>
       <c r="D304" s="213"/>
-      <c r="E304" s="270"/>
+      <c r="E304" s="292"/>
       <c r="F304" s="158"/>
       <c r="G304" s="158"/>
       <c r="H304" s="158"/>
@@ -15168,10 +15162,10 @@
     </row>
     <row r="305" spans="1:29" ht="15.75" customHeight="1">
       <c r="A305" s="196"/>
-      <c r="B305" s="269"/>
-      <c r="C305" s="269"/>
+      <c r="B305" s="291"/>
+      <c r="C305" s="291"/>
       <c r="D305" s="174"/>
-      <c r="E305" s="270"/>
+      <c r="E305" s="292"/>
       <c r="F305" s="158"/>
       <c r="G305" s="158"/>
       <c r="H305" s="158"/>
@@ -15199,10 +15193,10 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1">
       <c r="A306" s="196"/>
-      <c r="B306" s="269"/>
-      <c r="C306" s="269"/>
+      <c r="B306" s="291"/>
+      <c r="C306" s="291"/>
       <c r="D306" s="189"/>
-      <c r="E306" s="270"/>
+      <c r="E306" s="292"/>
       <c r="F306" s="158"/>
       <c r="G306" s="158"/>
       <c r="H306" s="158"/>
@@ -15230,10 +15224,10 @@
     </row>
     <row r="307" spans="1:29" ht="15.75" customHeight="1">
       <c r="A307" s="196"/>
-      <c r="B307" s="269"/>
-      <c r="C307" s="267"/>
+      <c r="B307" s="291"/>
+      <c r="C307" s="287"/>
       <c r="D307" s="189"/>
-      <c r="E307" s="270"/>
+      <c r="E307" s="292"/>
       <c r="F307" s="158"/>
       <c r="G307" s="158"/>
       <c r="H307" s="158"/>
@@ -15261,7 +15255,7 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1">
       <c r="A308" s="196"/>
-      <c r="B308" s="269"/>
+      <c r="B308" s="291"/>
       <c r="C308" s="193"/>
       <c r="D308" s="193"/>
       <c r="E308" s="196"/>
@@ -15292,10 +15286,10 @@
     </row>
     <row r="309" spans="1:29" ht="15.75" customHeight="1">
       <c r="A309" s="196"/>
-      <c r="B309" s="269"/>
-      <c r="C309" s="267"/>
+      <c r="B309" s="291"/>
+      <c r="C309" s="287"/>
       <c r="D309" s="213"/>
-      <c r="E309" s="267"/>
+      <c r="E309" s="287"/>
       <c r="F309" s="158"/>
       <c r="G309" s="158"/>
       <c r="H309" s="158"/>
@@ -15323,10 +15317,10 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1">
       <c r="A310" s="196"/>
-      <c r="B310" s="269"/>
-      <c r="C310" s="269"/>
+      <c r="B310" s="291"/>
+      <c r="C310" s="291"/>
       <c r="D310" s="234"/>
-      <c r="E310" s="267"/>
+      <c r="E310" s="287"/>
       <c r="F310" s="158"/>
       <c r="G310" s="158"/>
       <c r="H310" s="158"/>
@@ -15354,10 +15348,10 @@
     </row>
     <row r="311" spans="1:29" ht="15.75" customHeight="1">
       <c r="A311" s="196"/>
-      <c r="B311" s="269"/>
-      <c r="C311" s="269"/>
+      <c r="B311" s="291"/>
+      <c r="C311" s="291"/>
       <c r="D311" s="234"/>
-      <c r="E311" s="267"/>
+      <c r="E311" s="287"/>
       <c r="F311" s="158"/>
       <c r="G311" s="158"/>
       <c r="H311" s="158"/>
@@ -15385,10 +15379,10 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1">
       <c r="A312" s="196"/>
-      <c r="B312" s="269"/>
-      <c r="C312" s="269"/>
+      <c r="B312" s="291"/>
+      <c r="C312" s="291"/>
       <c r="D312" s="234"/>
-      <c r="E312" s="267"/>
+      <c r="E312" s="287"/>
       <c r="F312" s="158"/>
       <c r="G312" s="158"/>
       <c r="H312" s="158"/>
@@ -15416,10 +15410,10 @@
     </row>
     <row r="313" spans="1:29" ht="15.75" customHeight="1">
       <c r="A313" s="196"/>
-      <c r="B313" s="269"/>
-      <c r="C313" s="269"/>
+      <c r="B313" s="291"/>
+      <c r="C313" s="291"/>
       <c r="D313" s="234"/>
-      <c r="E313" s="267"/>
+      <c r="E313" s="287"/>
       <c r="F313" s="151"/>
       <c r="G313" s="151"/>
       <c r="H313" s="151"/>
@@ -15447,10 +15441,10 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1">
       <c r="A314" s="196"/>
-      <c r="B314" s="269"/>
-      <c r="C314" s="269"/>
+      <c r="B314" s="291"/>
+      <c r="C314" s="291"/>
       <c r="D314" s="174"/>
-      <c r="E314" s="267"/>
+      <c r="E314" s="287"/>
       <c r="F314" s="151"/>
       <c r="G314" s="151"/>
       <c r="H314" s="151"/>
@@ -15478,10 +15472,10 @@
     </row>
     <row r="315" spans="1:29" ht="15.75" customHeight="1">
       <c r="A315" s="196"/>
-      <c r="B315" s="269"/>
-      <c r="C315" s="269"/>
+      <c r="B315" s="291"/>
+      <c r="C315" s="291"/>
       <c r="D315" s="213"/>
-      <c r="E315" s="267"/>
+      <c r="E315" s="287"/>
       <c r="F315" s="158"/>
       <c r="G315" s="158"/>
       <c r="H315" s="158"/>
@@ -15509,10 +15503,10 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1">
       <c r="A316" s="196"/>
-      <c r="B316" s="269"/>
-      <c r="C316" s="269"/>
+      <c r="B316" s="291"/>
+      <c r="C316" s="291"/>
       <c r="D316" s="234"/>
-      <c r="E316" s="267"/>
+      <c r="E316" s="287"/>
       <c r="F316" s="149"/>
       <c r="G316" s="149"/>
       <c r="H316" s="149"/>
@@ -15540,10 +15534,10 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1">
       <c r="A317" s="196"/>
-      <c r="B317" s="269"/>
-      <c r="C317" s="269"/>
+      <c r="B317" s="291"/>
+      <c r="C317" s="291"/>
       <c r="D317" s="234"/>
-      <c r="E317" s="267"/>
+      <c r="E317" s="287"/>
       <c r="F317" s="149"/>
       <c r="G317" s="149"/>
       <c r="H317" s="149"/>
@@ -15571,10 +15565,10 @@
     </row>
     <row r="318" spans="1:29" ht="15.75" customHeight="1">
       <c r="A318" s="196"/>
-      <c r="B318" s="269"/>
-      <c r="C318" s="269"/>
+      <c r="B318" s="291"/>
+      <c r="C318" s="291"/>
       <c r="D318" s="174"/>
-      <c r="E318" s="267"/>
+      <c r="E318" s="287"/>
       <c r="F318" s="149"/>
       <c r="G318" s="149"/>
       <c r="H318" s="149"/>
@@ -17710,11 +17704,33 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="B289:B318"/>
+    <mergeCell ref="C289:C302"/>
+    <mergeCell ref="E289:E296"/>
+    <mergeCell ref="E299:E302"/>
+    <mergeCell ref="C304:C307"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="C309:C318"/>
+    <mergeCell ref="E309:E314"/>
+    <mergeCell ref="E315:E318"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C256:C260"/>
+    <mergeCell ref="K272:K273"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="D186:D194"/>
+    <mergeCell ref="K237:K239"/>
+    <mergeCell ref="L237:L239"/>
+    <mergeCell ref="C246:C252"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="D121:D127"/>
+    <mergeCell ref="D129:D137"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D174:D184"/>
+    <mergeCell ref="M174:M181"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="B10:B184"/>
@@ -17731,33 +17747,11 @@
     <mergeCell ref="D95:D105"/>
     <mergeCell ref="D107:D116"/>
     <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D121:D127"/>
-    <mergeCell ref="D129:D137"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D174:D184"/>
-    <mergeCell ref="M174:M181"/>
-    <mergeCell ref="D186:D194"/>
-    <mergeCell ref="K237:K239"/>
-    <mergeCell ref="L237:L239"/>
-    <mergeCell ref="C246:C252"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="C256:C260"/>
-    <mergeCell ref="K272:K273"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="K276:K277"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="B289:B318"/>
-    <mergeCell ref="C289:C302"/>
-    <mergeCell ref="E289:E296"/>
-    <mergeCell ref="E299:E302"/>
-    <mergeCell ref="C304:C307"/>
-    <mergeCell ref="E304:E305"/>
-    <mergeCell ref="E306:E307"/>
-    <mergeCell ref="C309:C318"/>
-    <mergeCell ref="E309:E314"/>
-    <mergeCell ref="E315:E318"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="L8">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
@@ -17821,7 +17815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:H49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -17836,7 +17830,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="13.5" customHeight="1">
       <c r="B3" s="293" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="293"/>
       <c r="D3" s="293"/>
@@ -17856,16 +17850,16 @@
     </row>
     <row r="5" spans="2:8" ht="44.25" customHeight="1">
       <c r="B5" s="242" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="243" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="243" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="243" t="s">
         <v>307</v>
-      </c>
-      <c r="D5" s="243" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="243" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="244" customFormat="1" ht="27.75" customHeight="1">
@@ -17873,13 +17867,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="246" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="247" t="s">
         <v>309</v>
       </c>
-      <c r="D6" s="247" t="s">
+      <c r="E6" s="245" t="s">
         <v>310</v>
-      </c>
-      <c r="E6" s="245" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="244" customFormat="1" ht="29.25" customHeight="1">
@@ -17887,13 +17881,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="248" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="249" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="249" t="s">
+      <c r="E7" s="245" t="s">
         <v>313</v>
-      </c>
-      <c r="E7" s="245" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
@@ -17901,13 +17895,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="248" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="249" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="E8" s="245" t="s">
         <v>316</v>
-      </c>
-      <c r="E8" s="245" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
@@ -17915,13 +17909,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="248" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="249" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="249" t="s">
+      <c r="E9" s="245" t="s">
         <v>319</v>
-      </c>
-      <c r="E9" s="245" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
@@ -17929,13 +17923,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="248" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="249" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="249" t="s">
-        <v>322</v>
-      </c>
       <c r="E10" s="245" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="250" customFormat="1" ht="27.75" customHeight="1">
@@ -17943,13 +17937,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="248" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="249" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="249" t="s">
-        <v>324</v>
-      </c>
       <c r="E11" s="245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
@@ -17957,13 +17951,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="248" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="249" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="249" t="s">
-        <v>326</v>
-      </c>
       <c r="E12" s="245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:8" s="250" customFormat="1" ht="29.25" customHeight="1">
@@ -17971,13 +17965,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="248" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="249" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="249" t="s">
-        <v>328</v>
-      </c>
       <c r="E13" s="245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
@@ -17985,13 +17979,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="248" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="249" t="s">
         <v>329</v>
       </c>
-      <c r="D14" s="249" t="s">
-        <v>330</v>
-      </c>
       <c r="E14" s="245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
@@ -17999,13 +17993,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="248" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="249" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="249" t="s">
-        <v>332</v>
-      </c>
       <c r="E15" s="245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:8" s="250" customFormat="1" ht="28.5" customHeight="1">
@@ -18013,13 +18007,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="248" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="249" t="s">
         <v>333</v>
       </c>
-      <c r="D16" s="249" t="s">
-        <v>334</v>
-      </c>
       <c r="E16" s="245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:2">
